--- a/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
+++ b/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICPC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="495" yWindow="-75" windowWidth="19785" windowHeight="9570" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -25,7 +30,7 @@
     <author>rcosenti</author>
   </authors>
   <commentList>
-    <comment ref="A42" authorId="0">
+    <comment ref="A42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0">
+    <comment ref="A98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0">
+    <comment ref="A122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A134" authorId="0">
+    <comment ref="A134" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="0">
+    <comment ref="A135" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0">
+    <comment ref="A136" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A239" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A243" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
     <author>rcosenti</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU2" authorId="0">
+    <comment ref="BV2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS2" authorId="0">
+    <comment ref="CT2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE2" authorId="0">
+    <comment ref="DF2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF2" authorId="0">
+    <comment ref="DG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG2" authorId="0">
+    <comment ref="DH2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HF2" authorId="0">
+    <comment ref="HG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="307">
   <si>
     <t>Ever Smoked</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -1382,6 +1387,12 @@
   </si>
   <si>
     <t>Verify Now ADP stimulated Aggregation (while on maintenance dose of Clopidogrel) % Inhibition</t>
+  </si>
+  <si>
+    <t>0= creatinine levels&lt;2.5 mg/dl; 1= creatinine levels&gt;=2.5 mg/dl; NA= missing datum</t>
+  </si>
+  <si>
+    <t>Creatinine Category</t>
   </si>
 </sst>
 </file>
@@ -16490,6 +16501,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -18762,10 +18776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HF18"/>
+  <dimension ref="A1:HG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -18782,72 +18796,72 @@
     <col min="25" max="25" width="10.7109375" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" customWidth="1"/>
-    <col min="33" max="35" width="13.28515625" customWidth="1"/>
-    <col min="36" max="36" width="10.28515625" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" customWidth="1"/>
-    <col min="42" max="43" width="10.28515625" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" customWidth="1"/>
-    <col min="45" max="45" width="14" customWidth="1"/>
-    <col min="46" max="46" width="10.42578125" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" customWidth="1"/>
-    <col min="48" max="48" width="13.28515625" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" customWidth="1"/>
-    <col min="50" max="52" width="10.28515625" customWidth="1"/>
-    <col min="53" max="53" width="11" customWidth="1"/>
-    <col min="54" max="54" width="12.7109375" customWidth="1"/>
-    <col min="55" max="65" width="9.7109375" customWidth="1"/>
-    <col min="66" max="66" width="15.7109375" customWidth="1"/>
-    <col min="67" max="68" width="12.7109375" customWidth="1"/>
-    <col min="69" max="70" width="14.5703125" customWidth="1"/>
-    <col min="85" max="85" width="11.28515625" customWidth="1"/>
-    <col min="86" max="86" width="11.5703125" customWidth="1"/>
-    <col min="87" max="87" width="11" customWidth="1"/>
-    <col min="88" max="88" width="10.85546875" customWidth="1"/>
-    <col min="89" max="89" width="10.7109375" customWidth="1"/>
-    <col min="92" max="92" width="13.140625" customWidth="1"/>
-    <col min="97" max="97" width="13.7109375" customWidth="1"/>
-    <col min="98" max="98" width="12.7109375" customWidth="1"/>
-    <col min="99" max="99" width="11.28515625" customWidth="1"/>
-    <col min="103" max="103" width="10" customWidth="1"/>
-    <col min="104" max="104" width="11.7109375" customWidth="1"/>
-    <col min="111" max="111" width="10.5703125" customWidth="1"/>
-    <col min="114" max="114" width="10" customWidth="1"/>
-    <col min="115" max="115" width="10.28515625" customWidth="1"/>
-    <col min="116" max="116" width="10.85546875" customWidth="1"/>
-    <col min="117" max="118" width="10.7109375" customWidth="1"/>
-    <col min="119" max="119" width="10.85546875" customWidth="1"/>
-    <col min="120" max="120" width="10.7109375" customWidth="1"/>
-    <col min="121" max="121" width="11.28515625" customWidth="1"/>
-    <col min="122" max="122" width="14.7109375" customWidth="1"/>
-    <col min="123" max="123" width="14.85546875" customWidth="1"/>
-    <col min="124" max="124" width="13.5703125" customWidth="1"/>
-    <col min="127" max="127" width="11.140625" customWidth="1"/>
-    <col min="131" max="132" width="9.5703125" customWidth="1"/>
-    <col min="133" max="133" width="10.140625" customWidth="1"/>
-    <col min="134" max="135" width="10.28515625" customWidth="1"/>
-    <col min="136" max="136" width="9.7109375" customWidth="1"/>
-    <col min="137" max="137" width="11.140625" customWidth="1"/>
-    <col min="138" max="138" width="9.7109375" customWidth="1"/>
-    <col min="139" max="139" width="10.85546875" customWidth="1"/>
-    <col min="140" max="141" width="9.7109375" customWidth="1"/>
-    <col min="142" max="143" width="10.28515625" customWidth="1"/>
-    <col min="144" max="144" width="9.7109375" customWidth="1"/>
-    <col min="159" max="159" width="11.140625" customWidth="1"/>
-    <col min="190" max="190" width="11.7109375" customWidth="1"/>
+    <col min="29" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" customWidth="1"/>
+    <col min="34" max="36" width="13.28515625" customWidth="1"/>
+    <col min="37" max="37" width="10.28515625" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="9.85546875" customWidth="1"/>
+    <col min="43" max="44" width="10.28515625" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" customWidth="1"/>
+    <col min="46" max="46" width="14" customWidth="1"/>
+    <col min="47" max="47" width="10.42578125" customWidth="1"/>
+    <col min="48" max="48" width="11.5703125" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" customWidth="1"/>
+    <col min="50" max="50" width="11.42578125" customWidth="1"/>
+    <col min="51" max="53" width="10.28515625" customWidth="1"/>
+    <col min="54" max="54" width="11" customWidth="1"/>
+    <col min="55" max="55" width="12.7109375" customWidth="1"/>
+    <col min="56" max="66" width="9.7109375" customWidth="1"/>
+    <col min="67" max="67" width="15.7109375" customWidth="1"/>
+    <col min="68" max="69" width="12.7109375" customWidth="1"/>
+    <col min="70" max="71" width="14.5703125" customWidth="1"/>
+    <col min="86" max="86" width="11.28515625" customWidth="1"/>
+    <col min="87" max="87" width="11.5703125" customWidth="1"/>
+    <col min="88" max="88" width="11" customWidth="1"/>
+    <col min="89" max="89" width="10.85546875" customWidth="1"/>
+    <col min="90" max="90" width="10.7109375" customWidth="1"/>
+    <col min="93" max="93" width="13.140625" customWidth="1"/>
+    <col min="98" max="98" width="13.7109375" customWidth="1"/>
+    <col min="99" max="99" width="12.7109375" customWidth="1"/>
+    <col min="100" max="100" width="11.28515625" customWidth="1"/>
+    <col min="104" max="104" width="10" customWidth="1"/>
+    <col min="105" max="105" width="11.7109375" customWidth="1"/>
+    <col min="112" max="112" width="10.5703125" customWidth="1"/>
+    <col min="115" max="115" width="10" customWidth="1"/>
+    <col min="116" max="116" width="10.28515625" customWidth="1"/>
+    <col min="117" max="117" width="10.85546875" customWidth="1"/>
+    <col min="118" max="119" width="10.7109375" customWidth="1"/>
+    <col min="120" max="120" width="10.85546875" customWidth="1"/>
+    <col min="121" max="121" width="10.7109375" customWidth="1"/>
+    <col min="122" max="122" width="11.28515625" customWidth="1"/>
+    <col min="123" max="123" width="14.7109375" customWidth="1"/>
+    <col min="124" max="124" width="14.85546875" customWidth="1"/>
+    <col min="125" max="125" width="13.5703125" customWidth="1"/>
+    <col min="128" max="128" width="11.140625" customWidth="1"/>
+    <col min="132" max="133" width="9.5703125" customWidth="1"/>
+    <col min="134" max="134" width="10.140625" customWidth="1"/>
+    <col min="135" max="136" width="10.28515625" customWidth="1"/>
+    <col min="137" max="137" width="9.7109375" customWidth="1"/>
+    <col min="138" max="138" width="11.140625" customWidth="1"/>
+    <col min="139" max="139" width="9.7109375" customWidth="1"/>
+    <col min="140" max="140" width="10.85546875" customWidth="1"/>
+    <col min="141" max="142" width="9.7109375" customWidth="1"/>
+    <col min="143" max="144" width="10.28515625" customWidth="1"/>
+    <col min="145" max="145" width="9.7109375" customWidth="1"/>
+    <col min="160" max="160" width="11.140625" customWidth="1"/>
+    <col min="191" max="191" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:214" s="43" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:215" s="43" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:214" s="33" customFormat="1" ht="231.75" customHeight="1">
+    <row r="2" spans="1:215" s="33" customFormat="1" ht="231.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -18936,562 +18950,565 @@
         <v>150</v>
       </c>
       <c r="AD2" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE2" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AF2" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AG2" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AH2" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AI2" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="AI2" s="26" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AK2" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AL2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AN2" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="AN2" s="27" t="s">
+      <c r="AO2" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="AO2" s="27" t="s">
+      <c r="AP2" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AQ2" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AR2" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AS2" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="AS2" s="27" t="s">
+      <c r="AT2" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="AT2" s="27" t="s">
+      <c r="AU2" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="AU2" s="27" t="s">
+      <c r="AV2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="AV2" s="27" t="s">
+      <c r="AW2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AW2" s="28" t="s">
+      <c r="AX2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AY2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" s="29" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="BA2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="BA2" s="30" t="s">
+      <c r="BB2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="BB2" s="41" t="s">
+      <c r="BC2" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="BC2" s="41" t="s">
+      <c r="BD2" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="BD2" s="41" t="s">
+      <c r="BE2" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="BE2" s="41" t="s">
+      <c r="BF2" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="BF2" s="41" t="s">
+      <c r="BG2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="BG2" s="41" t="s">
+      <c r="BH2" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="BH2" s="41" t="s">
+      <c r="BI2" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="BI2" s="41" t="s">
+      <c r="BJ2" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="BJ2" s="41" t="s">
+      <c r="BK2" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="BK2" s="41" t="s">
+      <c r="BL2" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="BL2" s="41" t="s">
+      <c r="BM2" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="BM2" s="41" t="s">
+      <c r="BN2" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="BN2" s="41" t="s">
+      <c r="BO2" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="BO2" s="27" t="s">
+      <c r="BP2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="BP2" s="27" t="s">
+      <c r="BQ2" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="BQ2" s="27" t="s">
+      <c r="BR2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="BR2" s="27" t="s">
+      <c r="BS2" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="BS2" s="27" t="s">
+      <c r="BT2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="BT2" s="27" t="s">
+      <c r="BU2" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="BU2" s="41" t="s">
+      <c r="BV2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="BV2" s="41" t="s">
+      <c r="BW2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="BW2" s="41" t="s">
+      <c r="BX2" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="BX2" s="41" t="s">
+      <c r="BY2" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BY2" s="41" t="s">
+      <c r="BZ2" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BZ2" s="41" t="s">
+      <c r="CA2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="CA2" s="41" t="s">
+      <c r="CB2" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="CB2" s="41" t="s">
+      <c r="CC2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="CC2" s="41" t="s">
+      <c r="CD2" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="CD2" s="41" t="s">
+      <c r="CE2" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="CE2" s="41" t="s">
+      <c r="CF2" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="CF2" s="41" t="s">
+      <c r="CG2" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="CG2" s="28" t="s">
+      <c r="CH2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="CH2" s="41" t="s">
+      <c r="CI2" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="CI2" s="41" t="s">
+      <c r="CJ2" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="CJ2" s="28" t="s">
+      <c r="CK2" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="CK2" s="28" t="s">
+      <c r="CL2" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CL2" s="28" t="s">
+      <c r="CM2" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="CM2" s="28" t="s">
+      <c r="CN2" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="CN2" s="41" t="s">
+      <c r="CO2" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="CO2" s="28" t="s">
+      <c r="CP2" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="CP2" s="28" t="s">
+      <c r="CQ2" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="CQ2" s="28" t="s">
+      <c r="CR2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="CR2" s="41" t="s">
+      <c r="CS2" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="CS2" s="30" t="s">
+      <c r="CT2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CT2" s="30" t="s">
+      <c r="CU2" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="CU2" s="30" t="s">
+      <c r="CV2" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="CV2" s="30" t="s">
+      <c r="CW2" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="CW2" s="30" t="s">
+      <c r="CX2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="CX2" s="28" t="s">
+      <c r="CY2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="CY2" s="28" t="s">
+      <c r="CZ2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="CZ2" s="28" t="s">
+      <c r="DA2" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="DA2" s="28" t="s">
+      <c r="DB2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="DB2" s="29" t="s">
+      <c r="DC2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="DC2" s="29" t="s">
+      <c r="DD2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="DD2" s="28" t="s">
+      <c r="DE2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="DE2" s="29" t="s">
+      <c r="DF2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="DF2" s="29" t="s">
+      <c r="DG2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="DG2" s="29" t="s">
+      <c r="DH2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="DH2" s="28" t="s">
+      <c r="DI2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="DI2" s="41" t="s">
+      <c r="DJ2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="DJ2" s="30" t="s">
+      <c r="DK2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="DK2" s="30" t="s">
+      <c r="DL2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="DL2" s="30" t="s">
+      <c r="DM2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="DM2" s="30" t="s">
+      <c r="DN2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="DN2" s="13" t="s">
+      <c r="DO2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="DO2" s="30" t="s">
+      <c r="DP2" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="DP2" s="30" t="s">
+      <c r="DQ2" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="DQ2" s="30" t="s">
+      <c r="DR2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="DR2" s="30" t="s">
+      <c r="DS2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="DS2" s="30" t="s">
+      <c r="DT2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="DT2" s="13" t="s">
+      <c r="DU2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="DU2" s="13" t="s">
+      <c r="DV2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="DV2" s="13" t="s">
+      <c r="DW2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="DW2" s="13" t="s">
+      <c r="DX2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="DX2" s="13" t="s">
+      <c r="DY2" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="DY2" s="13" t="s">
+      <c r="DZ2" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="DZ2" s="13" t="s">
+      <c r="EA2" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="EA2" s="13" t="s">
+      <c r="EB2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="EB2" s="13" t="s">
+      <c r="EC2" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="EC2" s="13" t="s">
+      <c r="ED2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="ED2" s="13" t="s">
+      <c r="EE2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="EE2" s="13" t="s">
+      <c r="EF2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="EF2" s="13" t="s">
+      <c r="EG2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="EG2" s="13" t="s">
+      <c r="EH2" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="EH2" s="13" t="s">
+      <c r="EI2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="EI2" s="13" t="s">
+      <c r="EJ2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="EJ2" s="13" t="s">
+      <c r="EK2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="EK2" s="13" t="s">
+      <c r="EL2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="EL2" s="13" t="s">
+      <c r="EM2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="EM2" s="13" t="s">
+      <c r="EN2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="EN2" s="13" t="s">
+      <c r="EO2" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="EO2" s="13" t="s">
+      <c r="EP2" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="EP2" s="13" t="s">
+      <c r="EQ2" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="EQ2" s="13" t="s">
+      <c r="ER2" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="ER2" s="13" t="s">
+      <c r="ES2" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="ES2" s="13" t="s">
+      <c r="ET2" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="ET2" s="13" t="s">
+      <c r="EU2" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="EU2" s="13" t="s">
+      <c r="EV2" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="EV2" s="13" t="s">
+      <c r="EW2" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="EW2" s="13" t="s">
+      <c r="EX2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="EX2" s="13" t="s">
+      <c r="EY2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="EY2" s="13" t="s">
+      <c r="EZ2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="EZ2" s="13" t="s">
+      <c r="FA2" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="FA2" s="13" t="s">
+      <c r="FB2" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="FB2" s="13" t="s">
+      <c r="FC2" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="FC2" s="13" t="s">
+      <c r="FD2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="FD2" s="13" t="s">
+      <c r="FE2" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="FE2" s="13" t="s">
+      <c r="FF2" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="FF2" s="13" t="s">
+      <c r="FG2" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="FG2" s="13" t="s">
+      <c r="FH2" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="FH2" s="13" t="s">
+      <c r="FI2" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="FI2" s="13" t="s">
+      <c r="FJ2" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="FJ2" s="13" t="s">
+      <c r="FK2" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="FK2" s="13" t="s">
+      <c r="FL2" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="FL2" s="13" t="s">
+      <c r="FM2" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="FM2" s="13" t="s">
+      <c r="FN2" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="FN2" s="13" t="s">
+      <c r="FO2" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="FO2" s="13" t="s">
+      <c r="FP2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="FP2" s="13" t="s">
+      <c r="FQ2" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="FQ2" s="13" t="s">
+      <c r="FR2" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="FR2" s="13" t="s">
+      <c r="FS2" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="FS2" s="13" t="s">
+      <c r="FT2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="FT2" s="13" t="s">
+      <c r="FU2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="FU2" s="13" t="s">
+      <c r="FV2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="FV2" s="13" t="s">
+      <c r="FW2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="FW2" s="13" t="s">
+      <c r="FX2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="FX2" s="13" t="s">
+      <c r="FY2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="FY2" s="13" t="s">
+      <c r="FZ2" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="FZ2" s="13" t="s">
+      <c r="GA2" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="GA2" s="13" t="s">
+      <c r="GB2" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="GB2" s="13" t="s">
+      <c r="GC2" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="GC2" s="13" t="s">
+      <c r="GD2" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="GD2" s="13" t="s">
+      <c r="GE2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="GE2" s="13" t="s">
+      <c r="GF2" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="GF2" s="13" t="s">
+      <c r="GG2" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="GG2" s="13" t="s">
+      <c r="GH2" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="GH2" s="13" t="s">
+      <c r="GI2" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="GI2" s="13" t="s">
+      <c r="GJ2" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="GJ2" s="13" t="s">
+      <c r="GK2" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="GK2" s="13" t="s">
+      <c r="GL2" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="GL2" s="13" t="s">
+      <c r="GM2" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="GM2" s="13" t="s">
+      <c r="GN2" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="GN2" s="13" t="s">
+      <c r="GO2" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="GO2" s="13" t="s">
+      <c r="GP2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="GP2" s="13" t="s">
+      <c r="GQ2" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="GQ2" s="13" t="s">
+      <c r="GR2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="GR2" s="13" t="s">
+      <c r="GS2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="GS2" s="31" t="s">
+      <c r="GT2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="GT2" s="32" t="s">
+      <c r="GU2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="GU2" s="32" t="s">
+      <c r="GV2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="GV2" s="32" t="s">
+      <c r="GW2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="GW2" s="32" t="s">
+      <c r="GX2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="GX2" s="32" t="s">
+      <c r="GY2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="GY2" s="32" t="s">
+      <c r="GZ2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="GZ2" s="32" t="s">
+      <c r="HA2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="HA2" s="32" t="s">
+      <c r="HB2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="HB2" s="14" t="s">
+      <c r="HC2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="HC2" s="14" t="s">
+      <c r="HD2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="HD2" s="14" t="s">
+      <c r="HE2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="HE2" s="14" t="s">
+      <c r="HF2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="HF2" s="14" t="s">
+      <c r="HG2" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:214" s="33" customFormat="1" ht="199.5" customHeight="1">
+    <row r="3" spans="1:215" s="33" customFormat="1" ht="199.5" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -19568,43 +19585,43 @@
         <v>148</v>
       </c>
       <c r="AD3" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE3" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AE3" s="36" t="s">
+      <c r="AF3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="AF3" s="36" t="s">
+      <c r="AG3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="36" t="s">
+      <c r="AH3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AI3" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="AI3" s="35" t="s">
+      <c r="AJ3" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AJ3" s="35" t="s">
+      <c r="AK3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="38" t="s">
+      <c r="AL3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="AL3" s="40" t="s">
+      <c r="AM3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AM3" s="38" t="s">
+      <c r="AN3" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AN3" s="38" t="s">
+      <c r="AO3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="38" t="s">
+      <c r="AP3" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="AP3" s="38" t="s">
-        <v>44</v>
       </c>
       <c r="AQ3" s="38" t="s">
         <v>44</v>
@@ -19621,143 +19638,143 @@
       <c r="AU3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AV3" s="36" t="s">
+      <c r="AV3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW3" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="AW3" s="34" t="s">
+      <c r="AX3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AX3" s="35" t="s">
+      <c r="AY3" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AY3" s="36" t="s">
+      <c r="AZ3" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="AZ3" s="34" t="s">
+      <c r="BA3" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="BA3" s="34" t="s">
+      <c r="BB3" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="BB3" s="35" t="s">
+      <c r="BC3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="35" t="s">
+      <c r="BD3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BD3" s="35" t="s">
+      <c r="BE3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="35" t="s">
+      <c r="BF3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BF3" s="35" t="s">
+      <c r="BG3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BG3" s="35" t="s">
+      <c r="BH3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BH3" s="35" t="s">
+      <c r="BI3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BI3" s="35" t="s">
+      <c r="BJ3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BJ3" s="35" t="s">
+      <c r="BK3" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="BK3" s="35" t="s">
+      <c r="BL3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BL3" s="35" t="s">
+      <c r="BM3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BM3" s="35" t="s">
+      <c r="BN3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BN3" s="35" t="s">
+      <c r="BO3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BO3" s="35" t="s">
+      <c r="BP3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="BP3" s="35" t="s">
+      <c r="BQ3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BQ3" s="35" t="s">
+      <c r="BR3" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="BR3" s="35" t="s">
+      <c r="BS3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BS3" s="35" t="s">
+      <c r="BT3" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="BT3" s="35" t="s">
+      <c r="BU3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BU3" s="35" t="s">
+      <c r="BV3" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BV3" s="35" t="s">
+      <c r="BW3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BW3" s="35" t="s">
+      <c r="BX3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BX3" s="35" t="s">
+      <c r="BY3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BY3" s="34" t="s">
+      <c r="BZ3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BZ3" s="34" t="s">
+      <c r="CA3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="CA3" s="34" t="s">
+      <c r="CB3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="CB3" s="34" t="s">
+      <c r="CC3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="CC3" s="34" t="s">
+      <c r="CD3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="CD3" s="34" t="s">
+      <c r="CE3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="CE3" s="34" t="s">
+      <c r="CF3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="CF3" s="34" t="s">
+      <c r="CG3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="CG3" s="35" t="s">
+      <c r="CH3" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="CH3" s="35" t="s">
+      <c r="CI3" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="CI3" s="34" t="s">
+      <c r="CJ3" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="CJ3" s="35" t="s">
+      <c r="CK3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="CK3" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="CL3" s="35" t="s">
+      <c r="CL3" s="34" t="s">
         <v>211</v>
       </c>
       <c r="CM3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="CN3" s="34" t="s">
+      <c r="CN3" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO3" s="34" t="s">
         <v>200</v>
-      </c>
-      <c r="CO3" s="35" t="s">
-        <v>211</v>
       </c>
       <c r="CP3" s="35" t="s">
         <v>211</v>
@@ -19768,19 +19785,19 @@
       <c r="CR3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="CS3" s="34" t="s">
+      <c r="CS3" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT3" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="CT3" s="34"/>
-      <c r="CU3" s="34" t="s">
+      <c r="CU3" s="34"/>
+      <c r="CV3" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="CV3" s="34"/>
-      <c r="CW3" s="34" t="s">
+      <c r="CW3" s="34"/>
+      <c r="CX3" s="34" t="s">
         <v>67</v>
-      </c>
-      <c r="CX3" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="CY3" s="36" t="s">
         <v>53</v>
@@ -19788,17 +19805,17 @@
       <c r="CZ3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="DA3" s="36"/>
-      <c r="DB3" s="36" t="s">
+      <c r="DA3" s="36" t="s">
         <v>53</v>
       </c>
+      <c r="DB3" s="36"/>
       <c r="DC3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="DD3" s="36"/>
-      <c r="DE3" s="36" t="s">
-        <v>130</v>
-      </c>
+      <c r="DD3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="DE3" s="36"/>
       <c r="DF3" s="36" t="s">
         <v>130</v>
       </c>
@@ -19806,13 +19823,13 @@
         <v>130</v>
       </c>
       <c r="DH3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="DI3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="DI3" s="38" t="s">
+      <c r="DJ3" s="38" t="s">
         <v>242</v>
-      </c>
-      <c r="DJ3" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="DK3" s="34" t="s">
         <v>90</v>
@@ -19823,11 +19840,11 @@
       <c r="DM3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="DN3" s="40" t="s">
+      <c r="DN3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="DO3" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="DO3" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="DP3" s="34" t="s">
         <v>90</v>
@@ -19850,11 +19867,11 @@
       <c r="DV3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="DW3" s="40" t="s">
+      <c r="DW3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX3" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="DX3" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="DY3" s="34" t="s">
         <v>90</v>
@@ -19946,11 +19963,11 @@
       <c r="FB3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="FC3" s="40" t="s">
+      <c r="FC3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="FD3" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="FD3" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="FE3" s="34" t="s">
         <v>90</v>
@@ -20039,11 +20056,11 @@
       <c r="GG3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="GH3" s="40" t="s">
+      <c r="GH3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="GI3" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="GI3" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="GJ3" s="34" t="s">
         <v>90</v>
@@ -20067,14 +20084,14 @@
         <v>90</v>
       </c>
       <c r="GQ3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="GR3" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="GR3" s="34"/>
-      <c r="GS3" s="35" t="s">
+      <c r="GS3" s="34"/>
+      <c r="GT3" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="GT3" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="GU3" s="34" t="s">
         <v>111</v>
@@ -20083,49 +20100,52 @@
         <v>111</v>
       </c>
       <c r="GW3" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="GX3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="GX3" s="34" t="s">
+      <c r="GY3" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="GY3" s="34" t="s">
+      <c r="GZ3" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="GZ3" s="34" t="s">
-        <v>114</v>
       </c>
       <c r="HA3" s="34" t="s">
         <v>114</v>
       </c>
       <c r="HB3" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="HC3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="HC3" s="34" t="s">
+      <c r="HD3" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="HD3" s="34" t="s">
+      <c r="HE3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="HE3" s="34" t="s">
+      <c r="HF3" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="HF3" s="37" t="s">
+      <c r="HG3" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:214" s="33" customFormat="1"/>
-    <row r="5" spans="1:214" s="33" customFormat="1"/>
-    <row r="6" spans="1:214" s="33" customFormat="1"/>
-    <row r="7" spans="1:214" s="33" customFormat="1"/>
-    <row r="8" spans="1:214" s="33" customFormat="1"/>
-    <row r="9" spans="1:214" s="33" customFormat="1"/>
-    <row r="10" spans="1:214" s="33" customFormat="1"/>
-    <row r="11" spans="1:214" s="33" customFormat="1"/>
-    <row r="12" spans="1:214" s="33" customFormat="1"/>
-    <row r="13" spans="1:214" s="39" customFormat="1"/>
-    <row r="14" spans="1:214" s="39" customFormat="1"/>
-    <row r="15" spans="1:214" s="39" customFormat="1"/>
-    <row r="16" spans="1:214" s="39" customFormat="1"/>
+    <row r="4" spans="1:215" s="33" customFormat="1"/>
+    <row r="5" spans="1:215" s="33" customFormat="1"/>
+    <row r="6" spans="1:215" s="33" customFormat="1"/>
+    <row r="7" spans="1:215" s="33" customFormat="1"/>
+    <row r="8" spans="1:215" s="33" customFormat="1"/>
+    <row r="9" spans="1:215" s="33" customFormat="1"/>
+    <row r="10" spans="1:215" s="33" customFormat="1"/>
+    <row r="11" spans="1:215" s="33" customFormat="1"/>
+    <row r="12" spans="1:215" s="33" customFormat="1"/>
+    <row r="13" spans="1:215" s="39" customFormat="1"/>
+    <row r="14" spans="1:215" s="39" customFormat="1"/>
+    <row r="15" spans="1:215" s="39" customFormat="1"/>
+    <row r="16" spans="1:215" s="39" customFormat="1"/>
     <row r="17" s="39" customFormat="1"/>
     <row r="18" s="39" customFormat="1"/>
   </sheetData>

--- a/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
+++ b/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICPC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="495" yWindow="-75" windowWidth="19785" windowHeight="9570" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2964" yWindow="84" windowWidth="16452" windowHeight="7164" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
     <sheet name="Subject_level_Data" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +20,7 @@
     <author>rcosenti</author>
   </authors>
   <commentList>
-    <comment ref="A42" authorId="0" shapeId="0">
+    <comment ref="A42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +28,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -47,14 +37,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ICD9 Codes?</t>
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0" shapeId="0">
+    <comment ref="A98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -71,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 left vs right
@@ -79,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0" shapeId="0">
+    <comment ref="A122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -96,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Additional QC measures:
@@ -107,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A134" authorId="0" shapeId="0">
+    <comment ref="A134" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -124,14 +114,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ADP concentration</t>
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="0" shapeId="0">
+    <comment ref="A135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -148,14 +138,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 specific concentration</t>
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0" shapeId="0">
+    <comment ref="A136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -172,14 +162,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 specific concentrations</t>
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0" shapeId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -196,14 +186,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 move to a row after specific genotypes of interest</t>
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0" shapeId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +201,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -220,7 +210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 move to a row after specific genotypes of interest</t>
@@ -237,7 +227,7 @@
     <author>rcosenti</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +235,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -254,14 +244,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ICD9 Codes?</t>
         </r>
       </text>
     </comment>
-    <comment ref="BV2" authorId="0" shapeId="0">
+    <comment ref="BU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -278,7 +268,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 left vs right
@@ -286,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT2" authorId="0" shapeId="0">
+    <comment ref="CS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +284,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -303,7 +293,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Additional QC measures:
@@ -314,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF2" authorId="0" shapeId="0">
+    <comment ref="DE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -331,14 +321,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ADP concentration</t>
         </r>
       </text>
     </comment>
-    <comment ref="DG2" authorId="0" shapeId="0">
+    <comment ref="DF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +336,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -355,14 +345,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 specific concentration</t>
         </r>
       </text>
     </comment>
-    <comment ref="DH2" authorId="0" shapeId="0">
+    <comment ref="DG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +360,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -379,14 +369,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 specific concentrations</t>
         </r>
       </text>
     </comment>
-    <comment ref="HG2" authorId="0" shapeId="0">
+    <comment ref="HF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +384,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>rcosenti:</t>
         </r>
@@ -403,7 +393,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 move to a row after specific genotypes of interest</t>
@@ -415,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="336">
   <si>
     <t>Ever Smoked</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -1389,17 +1379,108 @@
     <t>Verify Now ADP stimulated Aggregation (while on maintenance dose of Clopidogrel) % Inhibition</t>
   </si>
   <si>
-    <t>0= creatinine levels&lt;2.5 mg/dl; 1= creatinine levels&gt;=2.5 mg/dl; NA= missing datum</t>
-  </si>
-  <si>
-    <t>Creatinine Category</t>
+    <t>Coded project site where data was collected. This will be filled by PharmGKB</t>
+  </si>
+  <si>
+    <t>obsolete column, please leave blank</t>
+  </si>
+  <si>
+    <t>Indication for Clopidogrel</t>
+  </si>
+  <si>
+    <t>PCI Information (for patients with CAD)</t>
+  </si>
+  <si>
+    <t>Coronary artery disease=1; Peripheral arterial disease=2; Ischemic stroke=3; Healthy control=4; Others=5; Not available=NA; please use ";"  to separate if multiple numbers are entered.</t>
+  </si>
+  <si>
+    <t>Stable and no PCI=1; ACS and no PCI=2; Stable and PCI=3; ACS and PCI=4;  Not Available =NA; please choose 1 value only, this is only relevant in patients with CAD</t>
+  </si>
+  <si>
+    <t>multiplate_adp_test</t>
+  </si>
+  <si>
+    <t>CYP2B6*4 genotype A&gt;G (rs2279343)</t>
+  </si>
+  <si>
+    <t>CYP2B6*9 genotype G&gt;T (rs3745274)</t>
+  </si>
+  <si>
+    <t>rs2279343</t>
+  </si>
+  <si>
+    <t>rs3745274_cyp2b6_9</t>
+  </si>
+  <si>
+    <t>Hemoglogin (g/dL)</t>
+  </si>
+  <si>
+    <t>PLASMA UREA (mmol/L)</t>
+  </si>
+  <si>
+    <t>hemoglobin</t>
+  </si>
+  <si>
+    <t>plasma_urea</t>
+  </si>
+  <si>
+    <t>rs2242480</t>
+  </si>
+  <si>
+    <t>rs3213619</t>
+  </si>
+  <si>
+    <t>rs2032582</t>
+  </si>
+  <si>
+    <t>rs1057910</t>
+  </si>
+  <si>
+    <t>rs71647871</t>
+  </si>
+  <si>
+    <t>ACS during follow up</t>
+  </si>
+  <si>
+    <t>acs_during_followup</t>
+  </si>
+  <si>
+    <t>Time to the first ACS</t>
+  </si>
+  <si>
+    <t>ttf_acs</t>
+  </si>
+  <si>
+    <t>MI during follow up</t>
+  </si>
+  <si>
+    <t>Time to the first MI</t>
+  </si>
+  <si>
+    <t>mi_during_followup</t>
+  </si>
+  <si>
+    <t>ttf_mi</t>
+  </si>
+  <si>
+    <t>multiplate_aa_test</t>
+  </si>
+  <si>
+    <t>Multiplate ADP test</t>
+  </si>
+  <si>
+    <t>Multiplate AA test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-410]General"/>
+    <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1524,25 +1605,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1584,6 +1667,42 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1655,7 +1774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1691,8 +1810,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7299">
+  <cellStyleXfs count="7305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
@@ -8992,8 +9180,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9119,8 +9317,41 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="7300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="3" xfId="7300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="7300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="4" xfId="7300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7299">
+  <cellStyles count="7305">
+    <cellStyle name="Excel Built-in Normal" xfId="7300"/>
+    <cellStyle name="Heading" xfId="7301"/>
+    <cellStyle name="Heading1" xfId="7302"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1"/>
     <cellStyle name="Normal 10 10" xfId="2"/>
@@ -12524,6 +12755,7 @@
     <cellStyle name="Normal 47 7" xfId="2553"/>
     <cellStyle name="Normal 47 8" xfId="2554"/>
     <cellStyle name="Normal 48" xfId="7298"/>
+    <cellStyle name="Normal 49" xfId="7299"/>
     <cellStyle name="Normal 5" xfId="2555"/>
     <cellStyle name="Normal 5 10" xfId="2556"/>
     <cellStyle name="Normal 5 10 2" xfId="2557"/>
@@ -16419,6 +16651,8 @@
     <cellStyle name="Normal 9 8" xfId="3855"/>
     <cellStyle name="Normal 9 9" xfId="3856"/>
     <cellStyle name="Normal_Relling_11.30.xls 1.xls" xfId="3857"/>
+    <cellStyle name="Result" xfId="7303"/>
+    <cellStyle name="Result2" xfId="7304"/>
     <cellStyle name="표준_16" xfId="3858"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16500,9 +16734,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -16832,15 +17063,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="126.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="11"/>
+    <col min="1" max="1" width="72.88671875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16943,7 +17174,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="31.2">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -17239,7 +17470,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="31.2">
       <c r="A55" s="24" t="s">
         <v>223</v>
       </c>
@@ -17439,7 +17670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="31.2">
       <c r="A80" s="41" t="s">
         <v>264</v>
       </c>
@@ -17503,7 +17734,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="31.2">
       <c r="A88" s="41" t="s">
         <v>273</v>
       </c>
@@ -17548,7 +17779,7 @@
       <c r="C92" s="20"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="31.2">
       <c r="A93" s="27" t="s">
         <v>230</v>
       </c>
@@ -17751,7 +17982,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" ht="31.2">
       <c r="A117" s="41" t="s">
         <v>171</v>
       </c>
@@ -18015,7 +18246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="31.2">
       <c r="A151" s="13" t="s">
         <v>78</v>
       </c>
@@ -18023,7 +18254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="31.2">
       <c r="A152" s="13" t="s">
         <v>213</v>
       </c>
@@ -18031,7 +18262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="13" t="s">
         <v>302</v>
       </c>
@@ -18039,7 +18270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" ht="31.2">
       <c r="A154" s="13" t="s">
         <v>303</v>
       </c>
@@ -18047,7 +18278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" ht="31.2">
       <c r="A155" s="13" t="s">
         <v>304</v>
       </c>
@@ -18055,7 +18286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="31.2">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -18063,7 +18294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="31.2">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -18071,7 +18302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" ht="31.2">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -18079,7 +18310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" ht="31.2">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -18087,7 +18318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" ht="31.2">
       <c r="A160" s="13" t="s">
         <v>180</v>
       </c>
@@ -18095,7 +18326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="13" t="s">
         <v>181</v>
       </c>
@@ -18103,7 +18334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" ht="31.2">
       <c r="A162" s="13" t="s">
         <v>182</v>
       </c>
@@ -18111,7 +18342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="13" t="s">
         <v>183</v>
       </c>
@@ -18127,7 +18358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" ht="31.2">
       <c r="A165" s="13" t="s">
         <v>80</v>
       </c>
@@ -18167,7 +18398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" ht="31.2">
       <c r="A170" s="13" t="s">
         <v>243</v>
       </c>
@@ -18175,7 +18406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" ht="31.2">
       <c r="A171" s="13" t="s">
         <v>179</v>
       </c>
@@ -18183,7 +18414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="13" t="s">
         <v>244</v>
       </c>
@@ -18191,7 +18422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" ht="31.2">
       <c r="A173" s="13" t="s">
         <v>245</v>
       </c>
@@ -18199,7 +18430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" ht="31.2">
       <c r="A174" s="13" t="s">
         <v>246</v>
       </c>
@@ -18231,7 +18462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" ht="31.2">
       <c r="A178" s="13" t="s">
         <v>81</v>
       </c>
@@ -18271,7 +18502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" ht="31.2">
       <c r="A183" s="13" t="s">
         <v>253</v>
       </c>
@@ -18279,7 +18510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" ht="31.2">
       <c r="A184" s="13" t="s">
         <v>212</v>
       </c>
@@ -18287,7 +18518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" ht="31.2">
       <c r="A185" s="13" t="s">
         <v>277</v>
       </c>
@@ -18295,7 +18526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="13" t="s">
         <v>278</v>
       </c>
@@ -18303,7 +18534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="13" t="s">
         <v>279</v>
       </c>
@@ -18311,7 +18542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" ht="31.2">
       <c r="A188" s="13" t="s">
         <v>280</v>
       </c>
@@ -18319,7 +18550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" ht="31.2">
       <c r="A189" s="13" t="s">
         <v>281</v>
       </c>
@@ -18327,7 +18558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="13" t="s">
         <v>282</v>
       </c>
@@ -18335,7 +18566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="13" t="s">
         <v>283</v>
       </c>
@@ -18343,7 +18574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" ht="31.2">
       <c r="A192" s="13" t="s">
         <v>284</v>
       </c>
@@ -18351,7 +18582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" ht="31.2">
       <c r="A193" s="13" t="s">
         <v>285</v>
       </c>
@@ -18359,7 +18590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" ht="31.2">
       <c r="A194" s="13" t="s">
         <v>286</v>
       </c>
@@ -18367,7 +18598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" ht="31.2">
       <c r="A195" s="13" t="s">
         <v>287</v>
       </c>
@@ -18375,7 +18606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" ht="31.2">
       <c r="A196" s="13" t="s">
         <v>288</v>
       </c>
@@ -18383,7 +18614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" ht="31.2">
       <c r="A197" s="13" t="s">
         <v>289</v>
       </c>
@@ -18391,7 +18622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" ht="31.2">
       <c r="A198" s="13" t="s">
         <v>290</v>
       </c>
@@ -18399,7 +18630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" ht="31.2">
       <c r="A199" s="13" t="s">
         <v>177</v>
       </c>
@@ -18415,7 +18646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="13" t="s">
         <v>83</v>
       </c>
@@ -18423,7 +18654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" ht="31.2">
       <c r="A202" s="13" t="s">
         <v>188</v>
       </c>
@@ -18431,7 +18662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" ht="31.2">
       <c r="A203" s="13" t="s">
         <v>189</v>
       </c>
@@ -18439,7 +18670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" ht="31.2">
       <c r="A204" s="13" t="s">
         <v>190</v>
       </c>
@@ -18447,7 +18678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" ht="31.2">
       <c r="A205" s="13" t="s">
         <v>84</v>
       </c>
@@ -18455,7 +18686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" ht="31.2">
       <c r="A206" s="13" t="s">
         <v>191</v>
       </c>
@@ -18463,7 +18694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" ht="31.2">
       <c r="A207" s="13" t="s">
         <v>254</v>
       </c>
@@ -18471,7 +18702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" ht="31.2">
       <c r="A208" s="13" t="s">
         <v>255</v>
       </c>
@@ -18479,7 +18710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" ht="31.2">
       <c r="A209" s="13" t="s">
         <v>256</v>
       </c>
@@ -18487,7 +18718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" ht="31.2">
       <c r="A210" s="13" t="s">
         <v>257</v>
       </c>
@@ -18495,7 +18726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" ht="31.2">
       <c r="A211" s="13" t="s">
         <v>258</v>
       </c>
@@ -18503,7 +18734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" ht="31.2">
       <c r="A212" s="13" t="s">
         <v>259</v>
       </c>
@@ -18511,7 +18742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="213" spans="1:2" s="19" customFormat="1">
+    <row r="213" spans="1:2" s="19" customFormat="1" ht="31.2">
       <c r="A213" s="13" t="s">
         <v>260</v>
       </c>
@@ -18519,7 +18750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" ht="31.2">
       <c r="A214" s="13" t="s">
         <v>261</v>
       </c>
@@ -18527,7 +18758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" ht="31.2">
       <c r="A215" s="13" t="s">
         <v>214</v>
       </c>
@@ -18535,7 +18766,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" ht="31.2">
       <c r="A216" s="13" t="s">
         <v>291</v>
       </c>
@@ -18543,7 +18774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" ht="31.2">
       <c r="A217" s="13" t="s">
         <v>292</v>
       </c>
@@ -18551,7 +18782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" ht="31.2">
       <c r="A218" s="13" t="s">
         <v>293</v>
       </c>
@@ -18559,7 +18790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" ht="31.2">
       <c r="A219" s="13" t="s">
         <v>294</v>
       </c>
@@ -18567,7 +18798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" ht="31.2">
       <c r="A220" s="13" t="s">
         <v>295</v>
       </c>
@@ -18575,7 +18806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" ht="31.2">
       <c r="A221" s="13" t="s">
         <v>296</v>
       </c>
@@ -18583,7 +18814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" ht="31.2">
       <c r="A222" s="13" t="s">
         <v>297</v>
       </c>
@@ -18591,7 +18822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" ht="31.2">
       <c r="A223" s="13" t="s">
         <v>298</v>
       </c>
@@ -18693,7 +18924,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="45">
+    <row r="236" spans="1:2" ht="30">
       <c r="A236" s="14" t="s">
         <v>87</v>
       </c>
@@ -18701,7 +18932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="45">
+    <row r="237" spans="1:2" ht="30">
       <c r="A237" s="14" t="s">
         <v>88</v>
       </c>
@@ -18725,7 +18956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="45">
+    <row r="240" spans="1:2" ht="30">
       <c r="A240" s="14" t="s">
         <v>87</v>
       </c>
@@ -18733,7 +18964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="45">
+    <row r="241" spans="1:2" ht="30">
       <c r="A241" s="14" t="s">
         <v>88</v>
       </c>
@@ -18776,92 +19007,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HG18"/>
+  <dimension ref="A1:HX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="HH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="HM3" sqref="HM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
-    <col min="29" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="13.85546875" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" customWidth="1"/>
-    <col min="34" max="36" width="13.28515625" customWidth="1"/>
-    <col min="37" max="37" width="10.28515625" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" customWidth="1"/>
-    <col min="40" max="40" width="9.85546875" customWidth="1"/>
-    <col min="43" max="44" width="10.28515625" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" customWidth="1"/>
-    <col min="46" max="46" width="14" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" customWidth="1"/>
-    <col min="48" max="48" width="11.5703125" customWidth="1"/>
-    <col min="49" max="49" width="13.28515625" customWidth="1"/>
-    <col min="50" max="50" width="11.42578125" customWidth="1"/>
-    <col min="51" max="53" width="10.28515625" customWidth="1"/>
-    <col min="54" max="54" width="11" customWidth="1"/>
-    <col min="55" max="55" width="12.7109375" customWidth="1"/>
-    <col min="56" max="66" width="9.7109375" customWidth="1"/>
-    <col min="67" max="67" width="15.7109375" customWidth="1"/>
-    <col min="68" max="69" width="12.7109375" customWidth="1"/>
-    <col min="70" max="71" width="14.5703125" customWidth="1"/>
-    <col min="86" max="86" width="11.28515625" customWidth="1"/>
-    <col min="87" max="87" width="11.5703125" customWidth="1"/>
-    <col min="88" max="88" width="11" customWidth="1"/>
-    <col min="89" max="89" width="10.85546875" customWidth="1"/>
-    <col min="90" max="90" width="10.7109375" customWidth="1"/>
-    <col min="93" max="93" width="13.140625" customWidth="1"/>
-    <col min="98" max="98" width="13.7109375" customWidth="1"/>
-    <col min="99" max="99" width="12.7109375" customWidth="1"/>
-    <col min="100" max="100" width="11.28515625" customWidth="1"/>
-    <col min="104" max="104" width="10" customWidth="1"/>
-    <col min="105" max="105" width="11.7109375" customWidth="1"/>
-    <col min="112" max="112" width="10.5703125" customWidth="1"/>
-    <col min="115" max="115" width="10" customWidth="1"/>
-    <col min="116" max="116" width="10.28515625" customWidth="1"/>
-    <col min="117" max="117" width="10.85546875" customWidth="1"/>
-    <col min="118" max="119" width="10.7109375" customWidth="1"/>
-    <col min="120" max="120" width="10.85546875" customWidth="1"/>
-    <col min="121" max="121" width="10.7109375" customWidth="1"/>
-    <col min="122" max="122" width="11.28515625" customWidth="1"/>
-    <col min="123" max="123" width="14.7109375" customWidth="1"/>
-    <col min="124" max="124" width="14.85546875" customWidth="1"/>
-    <col min="125" max="125" width="13.5703125" customWidth="1"/>
-    <col min="128" max="128" width="11.140625" customWidth="1"/>
-    <col min="132" max="133" width="9.5703125" customWidth="1"/>
-    <col min="134" max="134" width="10.140625" customWidth="1"/>
-    <col min="135" max="136" width="10.28515625" customWidth="1"/>
-    <col min="137" max="137" width="9.7109375" customWidth="1"/>
-    <col min="138" max="138" width="11.140625" customWidth="1"/>
-    <col min="139" max="139" width="9.7109375" customWidth="1"/>
-    <col min="140" max="140" width="10.85546875" customWidth="1"/>
-    <col min="141" max="142" width="9.7109375" customWidth="1"/>
-    <col min="143" max="144" width="10.28515625" customWidth="1"/>
-    <col min="145" max="145" width="9.7109375" customWidth="1"/>
-    <col min="160" max="160" width="11.140625" customWidth="1"/>
-    <col min="191" max="191" width="11.7109375" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="13.88671875" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" customWidth="1"/>
+    <col min="33" max="35" width="13.33203125" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" customWidth="1"/>
+    <col min="42" max="43" width="10.33203125" customWidth="1"/>
+    <col min="44" max="44" width="11.5546875" customWidth="1"/>
+    <col min="45" max="45" width="14" customWidth="1"/>
+    <col min="46" max="46" width="10.44140625" customWidth="1"/>
+    <col min="47" max="47" width="11.5546875" customWidth="1"/>
+    <col min="48" max="48" width="13.33203125" customWidth="1"/>
+    <col min="49" max="49" width="11.44140625" customWidth="1"/>
+    <col min="50" max="52" width="10.33203125" customWidth="1"/>
+    <col min="53" max="53" width="11" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" customWidth="1"/>
+    <col min="55" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="15.6640625" customWidth="1"/>
+    <col min="67" max="68" width="12.6640625" customWidth="1"/>
+    <col min="69" max="70" width="14.5546875" customWidth="1"/>
+    <col min="85" max="85" width="11.33203125" customWidth="1"/>
+    <col min="86" max="86" width="11.5546875" customWidth="1"/>
+    <col min="87" max="87" width="11" customWidth="1"/>
+    <col min="88" max="88" width="10.88671875" customWidth="1"/>
+    <col min="89" max="89" width="10.6640625" customWidth="1"/>
+    <col min="92" max="92" width="13.109375" customWidth="1"/>
+    <col min="97" max="97" width="13.6640625" customWidth="1"/>
+    <col min="98" max="98" width="12.6640625" customWidth="1"/>
+    <col min="99" max="99" width="11.33203125" customWidth="1"/>
+    <col min="103" max="103" width="10" customWidth="1"/>
+    <col min="104" max="104" width="11.6640625" customWidth="1"/>
+    <col min="111" max="111" width="10.5546875" customWidth="1"/>
+    <col min="114" max="114" width="10" customWidth="1"/>
+    <col min="115" max="115" width="10.33203125" customWidth="1"/>
+    <col min="116" max="116" width="10.88671875" customWidth="1"/>
+    <col min="117" max="118" width="10.6640625" customWidth="1"/>
+    <col min="119" max="119" width="10.88671875" customWidth="1"/>
+    <col min="120" max="120" width="10.6640625" customWidth="1"/>
+    <col min="121" max="121" width="11.33203125" customWidth="1"/>
+    <col min="122" max="122" width="14.6640625" customWidth="1"/>
+    <col min="123" max="123" width="14.88671875" customWidth="1"/>
+    <col min="124" max="124" width="13.5546875" customWidth="1"/>
+    <col min="127" max="127" width="11.109375" customWidth="1"/>
+    <col min="131" max="132" width="9.5546875" customWidth="1"/>
+    <col min="133" max="133" width="10.109375" customWidth="1"/>
+    <col min="134" max="135" width="10.33203125" customWidth="1"/>
+    <col min="136" max="136" width="9.6640625" customWidth="1"/>
+    <col min="137" max="137" width="11.109375" customWidth="1"/>
+    <col min="138" max="138" width="9.6640625" customWidth="1"/>
+    <col min="139" max="139" width="10.88671875" customWidth="1"/>
+    <col min="140" max="141" width="9.6640625" customWidth="1"/>
+    <col min="142" max="143" width="10.33203125" customWidth="1"/>
+    <col min="144" max="144" width="9.6640625" customWidth="1"/>
+    <col min="159" max="159" width="11.109375" customWidth="1"/>
+    <col min="190" max="190" width="11.6640625" customWidth="1"/>
+    <col min="215" max="215" width="11.5546875" customWidth="1"/>
+    <col min="216" max="216" width="13.44140625" customWidth="1"/>
+    <col min="217" max="218" width="10.88671875" customWidth="1"/>
+    <col min="219" max="226" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:215" s="43" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:232" s="43" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:215" s="33" customFormat="1" ht="231.75" customHeight="1">
+      <c r="HK1" s="47"/>
+      <c r="HL1" s="47"/>
+      <c r="HM1" s="47"/>
+      <c r="HN1" s="47"/>
+      <c r="HO1" s="47"/>
+      <c r="HP1" s="47"/>
+      <c r="HQ1" s="47"/>
+      <c r="HR1" s="47"/>
+    </row>
+    <row r="2" spans="1:232" s="33" customFormat="1" ht="144.6" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -18950,565 +19193,613 @@
         <v>150</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="AF2" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG2" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="27" t="s">
         <v>157</v>
       </c>
+      <c r="AH2" s="26" t="s">
+        <v>276</v>
+      </c>
       <c r="AI2" s="26" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="AJ2" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK2" s="26" t="s">
         <v>156</v>
       </c>
+      <c r="AK2" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="AL2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM2" s="13" t="s">
         <v>222</v>
       </c>
+      <c r="AM2" s="27" t="s">
+        <v>198</v>
+      </c>
       <c r="AN2" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO2" s="27" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="AP2" s="27" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="AQ2" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AR2" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AS2" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AT2" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AU2" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AV2" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AX2" s="28" t="s">
+      <c r="AW2" s="28" t="s">
         <v>62</v>
       </c>
+      <c r="AX2" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="AY2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
         <v>64</v>
       </c>
+      <c r="AZ2" s="30" t="s">
+        <v>158</v>
+      </c>
       <c r="BA2" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB2" s="30" t="s">
         <v>159</v>
       </c>
+      <c r="BB2" s="41" t="s">
+        <v>207</v>
+      </c>
       <c r="BC2" s="41" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="BD2" s="41" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="BE2" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BF2" s="41" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="BG2" s="41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BH2" s="41" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BI2" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BJ2" s="41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BK2" s="41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL2" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BM2" s="41" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="BN2" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="BO2" s="41" t="s">
         <v>236</v>
       </c>
+      <c r="BO2" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="BP2" s="27" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="BQ2" s="27" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="BR2" s="27" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="BS2" s="27" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="BT2" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU2" s="27" t="s">
         <v>232</v>
       </c>
+      <c r="BU2" s="41" t="s">
+        <v>166</v>
+      </c>
       <c r="BV2" s="41" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="BW2" s="41" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="BX2" s="41" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="BY2" s="41" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="BZ2" s="41" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="CA2" s="41" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="CB2" s="41" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="CC2" s="41" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="CD2" s="41" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="CE2" s="41" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="CF2" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="CG2" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="CH2" s="28" t="s">
+      <c r="CG2" s="28" t="s">
         <v>65</v>
       </c>
+      <c r="CH2" s="41" t="s">
+        <v>170</v>
+      </c>
       <c r="CI2" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="CJ2" s="41" t="s">
         <v>208</v>
       </c>
+      <c r="CJ2" s="28" t="s">
+        <v>151</v>
+      </c>
       <c r="CK2" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CL2" s="28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="CM2" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="CN2" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="CO2" s="41" t="s">
+      <c r="CN2" s="41" t="s">
         <v>171</v>
       </c>
+      <c r="CO2" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="CP2" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CQ2" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="CR2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="CS2" s="41" t="s">
+      <c r="CR2" s="41" t="s">
         <v>209</v>
       </c>
+      <c r="CS2" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="CT2" s="30" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="CU2" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CV2" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CW2" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="CX2" s="30" t="s">
         <v>134</v>
       </c>
+      <c r="CX2" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="CY2" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CZ2" s="28" t="s">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="DA2" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="DB2" s="28" t="s">
         <v>56</v>
       </c>
+      <c r="DB2" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="DC2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="DD2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="DE2" s="28" t="s">
+      <c r="DD2" s="28" t="s">
         <v>58</v>
       </c>
+      <c r="DE2" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="DF2" s="29" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="DG2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="DH2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="DI2" s="28" t="s">
+      <c r="DH2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="DJ2" s="41" t="s">
+      <c r="DI2" s="41" t="s">
         <v>241</v>
       </c>
+      <c r="DJ2" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="DK2" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="DL2" s="30" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="DM2" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="DN2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="DO2" s="13" t="s">
+      <c r="DN2" s="13" t="s">
         <v>216</v>
       </c>
+      <c r="DO2" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="DP2" s="30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="DQ2" s="30" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="DR2" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="DS2" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="DT2" s="30" t="s">
         <v>75</v>
       </c>
+      <c r="DT2" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="DU2" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DV2" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="DW2" s="13" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="DX2" s="13" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="DY2" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="DZ2" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="EA2" s="13" t="s">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="EB2" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="EC2" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="ED2" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EE2" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="EF2" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="EG2" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EH2" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI2" s="13" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="EJ2" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="EK2" s="13" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="EL2" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EM2" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EN2" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EO2" s="13" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="EP2" s="13" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="EQ2" s="13" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="ER2" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="ES2" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="ET2" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="EU2" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="EV2" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="EW2" s="13" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="EX2" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="EY2" s="13" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="EZ2" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="FA2" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="FB2" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="FC2" s="13" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="FD2" s="13" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="FE2" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FF2" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="FG2" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="FH2" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="FI2" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="FJ2" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="FK2" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="FL2" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="FM2" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FN2" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FO2" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FP2" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FQ2" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FR2" s="13" t="s">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="FS2" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FT2" s="13" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="FU2" s="13" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="FV2" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="FW2" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="FX2" s="13" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="FY2" s="13" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="FZ2" s="13" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="GA2" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="GB2" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="GC2" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="GD2" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="GE2" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="GF2" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="GG2" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="GH2" s="13" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="GI2" s="13" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="GJ2" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="GK2" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="GL2" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="GM2" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GN2" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GO2" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GP2" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="GQ2" s="13" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="GR2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="GS2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="GT2" s="31" t="s">
+      <c r="GS2" s="31" t="s">
         <v>85</v>
       </c>
+      <c r="GT2" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="GU2" s="32" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="GV2" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="GW2" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="GX2" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="GY2" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="GZ2" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="HA2" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="HB2" s="32" t="s">
         <v>98</v>
       </c>
+      <c r="HB2" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="HC2" s="14" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="HD2" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="HE2" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="HF2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="HG2" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:215" s="33" customFormat="1" ht="199.5" customHeight="1">
+      <c r="HG2" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="HH2" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="HI2" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="HJ2" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="HK2" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="HL2" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="HM2" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="HN2" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="HO2" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="HP2" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="HQ2" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="HR2" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="HS2" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="HT2" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="HU2" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="HV2" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="HW2" s="50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:232" s="33" customFormat="1" ht="164.4" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -19522,7 +19813,7 @@
         <v>226</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>41</v>
@@ -19545,7 +19836,9 @@
       <c r="L3" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="35"/>
+      <c r="M3" s="35" t="s">
+        <v>306</v>
+      </c>
       <c r="N3" s="35" t="s">
         <v>218</v>
       </c>
@@ -19585,43 +19878,43 @@
         <v>148</v>
       </c>
       <c r="AD3" s="36" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF3" s="36" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="AG3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="36" t="s">
         <v>155</v>
       </c>
+      <c r="AH3" s="35" t="s">
+        <v>154</v>
+      </c>
       <c r="AI3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="35" t="s">
+      <c r="AL3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AK3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL3" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM3" s="40" t="s">
-        <v>108</v>
+      <c r="AM3" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="AN3" s="38" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AO3" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP3" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="AP3" s="38" t="s">
-        <v>229</v>
       </c>
       <c r="AQ3" s="38" t="s">
         <v>44</v>
@@ -19638,143 +19931,143 @@
       <c r="AU3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AV3" s="38" t="s">
+      <c r="AV3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AW3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX3" s="34" t="s">
+      <c r="AX3" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA3" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY3" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ3" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA3" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="BB3" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="BC3" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BD3" s="35" t="s">
+      <c r="BE3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BE3" s="35" t="s">
+      <c r="BF3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BF3" s="35" t="s">
+      <c r="BG3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BG3" s="35" t="s">
+      <c r="BH3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BH3" s="35" t="s">
+      <c r="BI3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BI3" s="35" t="s">
+      <c r="BJ3" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK3" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BJ3" s="35" t="s">
+      <c r="BM3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BK3" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="BL3" s="35" t="s">
+      <c r="BN3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO3" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BM3" s="35" t="s">
+      <c r="BQ3" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR3" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS3" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT3" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU3" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV3" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BW3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BN3" s="35" t="s">
+      <c r="BX3" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="BO3" s="35" t="s">
+      <c r="BY3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ3" s="35" t="s">
+      <c r="BZ3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="BR3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="BS3" s="35" t="s">
+      <c r="CA3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="BT3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU3" s="35" t="s">
+      <c r="CC3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="BV3" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW3" s="35" t="s">
+      <c r="CE3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF3" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="BX3" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY3" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="BZ3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="CC3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="CD3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="CE3" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG3" s="34" t="s">
-        <v>267</v>
+      <c r="CG3" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="CH3" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI3" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="CJ3" s="34" t="s">
+      <c r="CI3" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="CK3" s="35" t="s">
+      <c r="CJ3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="CL3" s="34" t="s">
+      <c r="CK3" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="CL3" s="35" t="s">
         <v>211</v>
       </c>
       <c r="CM3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="CN3" s="35" t="s">
+      <c r="CN3" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO3" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="CO3" s="34" t="s">
-        <v>200</v>
       </c>
       <c r="CP3" s="35" t="s">
         <v>211</v>
@@ -19785,19 +20078,19 @@
       <c r="CR3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="CS3" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT3" s="34" t="s">
+      <c r="CS3" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="CU3" s="34"/>
-      <c r="CV3" s="34" t="s">
+      <c r="CT3" s="34"/>
+      <c r="CU3" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="CW3" s="34"/>
-      <c r="CX3" s="34" t="s">
+      <c r="CV3" s="34"/>
+      <c r="CW3" s="34" t="s">
         <v>67</v>
+      </c>
+      <c r="CX3" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="CY3" s="36" t="s">
         <v>53</v>
@@ -19805,17 +20098,17 @@
       <c r="CZ3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="DA3" s="36" t="s">
+      <c r="DA3" s="36"/>
+      <c r="DB3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="DB3" s="36"/>
       <c r="DC3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="DD3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="DE3" s="36"/>
+      <c r="DD3" s="36"/>
+      <c r="DE3" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="DF3" s="36" t="s">
         <v>130</v>
       </c>
@@ -19823,13 +20116,13 @@
         <v>130</v>
       </c>
       <c r="DH3" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="DI3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="DJ3" s="38" t="s">
+      <c r="DI3" s="38" t="s">
         <v>242</v>
+      </c>
+      <c r="DJ3" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="DK3" s="34" t="s">
         <v>90</v>
@@ -19840,11 +20133,11 @@
       <c r="DM3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="DN3" s="34" t="s">
+      <c r="DN3" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="DO3" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="DO3" s="40" t="s">
-        <v>197</v>
       </c>
       <c r="DP3" s="34" t="s">
         <v>90</v>
@@ -19867,11 +20160,11 @@
       <c r="DV3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="DW3" s="34" t="s">
+      <c r="DW3" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="DX3" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="DX3" s="40" t="s">
-        <v>197</v>
       </c>
       <c r="DY3" s="34" t="s">
         <v>90</v>
@@ -19963,11 +20256,11 @@
       <c r="FB3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="FC3" s="34" t="s">
+      <c r="FC3" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD3" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="FD3" s="40" t="s">
-        <v>197</v>
       </c>
       <c r="FE3" s="34" t="s">
         <v>90</v>
@@ -20056,11 +20349,11 @@
       <c r="GG3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="GH3" s="34" t="s">
+      <c r="GH3" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="GI3" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="GI3" s="40" t="s">
-        <v>197</v>
       </c>
       <c r="GJ3" s="34" t="s">
         <v>90</v>
@@ -20084,14 +20377,14 @@
         <v>90</v>
       </c>
       <c r="GQ3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="GR3" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="GS3" s="34"/>
-      <c r="GT3" s="35" t="s">
+      <c r="GR3" s="34"/>
+      <c r="GS3" s="35" t="s">
         <v>91</v>
+      </c>
+      <c r="GT3" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="GU3" s="34" t="s">
         <v>111</v>
@@ -20100,62 +20393,106 @@
         <v>111</v>
       </c>
       <c r="GW3" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="GX3" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="GX3" s="34" t="s">
-        <v>112</v>
-      </c>
       <c r="GY3" s="34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GZ3" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="HA3" s="34" t="s">
         <v>114</v>
       </c>
       <c r="HB3" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="HC3" s="34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="HD3" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="HE3" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="HF3" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="HG3" s="37" t="s">
+      <c r="HF3" s="37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:215" s="33" customFormat="1"/>
-    <row r="5" spans="1:215" s="33" customFormat="1"/>
-    <row r="6" spans="1:215" s="33" customFormat="1"/>
-    <row r="7" spans="1:215" s="33" customFormat="1"/>
-    <row r="8" spans="1:215" s="33" customFormat="1"/>
-    <row r="9" spans="1:215" s="33" customFormat="1"/>
-    <row r="10" spans="1:215" s="33" customFormat="1"/>
-    <row r="11" spans="1:215" s="33" customFormat="1"/>
-    <row r="12" spans="1:215" s="33" customFormat="1"/>
-    <row r="13" spans="1:215" s="39" customFormat="1"/>
-    <row r="14" spans="1:215" s="39" customFormat="1"/>
-    <row r="15" spans="1:215" s="39" customFormat="1"/>
-    <row r="16" spans="1:215" s="39" customFormat="1"/>
+      <c r="HG3" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="HH3" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="HI3" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="HJ3" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="HK3" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="HL3" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="HM3" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="HN3" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="HO3" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="HP3" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="HQ3" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="HR3" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="HS3" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="HT3" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="HU3" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="HV3" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="HW3" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="HX3" s="52"/>
+    </row>
+    <row r="4" spans="1:232" s="33" customFormat="1"/>
+    <row r="5" spans="1:232" s="33" customFormat="1"/>
+    <row r="6" spans="1:232" s="33" customFormat="1"/>
+    <row r="7" spans="1:232" s="33" customFormat="1"/>
+    <row r="8" spans="1:232" s="33" customFormat="1"/>
+    <row r="9" spans="1:232" s="33" customFormat="1"/>
+    <row r="10" spans="1:232" s="33" customFormat="1"/>
+    <row r="11" spans="1:232" s="33" customFormat="1"/>
+    <row r="12" spans="1:232" s="33" customFormat="1"/>
+    <row r="13" spans="1:232" s="39" customFormat="1"/>
+    <row r="14" spans="1:232" s="39" customFormat="1"/>
+    <row r="15" spans="1:232" s="39" customFormat="1"/>
+    <row r="16" spans="1:232" s="39" customFormat="1"/>
     <row r="17" s="39" customFormat="1"/>
     <row r="18" s="39" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
+++ b/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="84" windowWidth="16452" windowHeight="7164" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1224" yWindow="264" windowWidth="16452" windowHeight="7164" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0">
+    <comment ref="A124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A134" authorId="0">
+    <comment ref="A136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="0">
+    <comment ref="A137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0">
+    <comment ref="A138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HF2" authorId="0">
+    <comment ref="HG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="342">
   <si>
     <t>Ever Smoked</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -928,9 +928,6 @@
   </si>
   <si>
     <t>Various cholesterol measurement (e.g. total, LDL, HDL, etc.) (Required)</t>
-  </si>
-  <si>
-    <t>Assay result  (numeric), expressed as a Platelet Reactivity Index (PRI) in %</t>
   </si>
   <si>
     <t>PAP-8 baseline platelet rich plasma max aggregation of ADP 2 µM %</t>
@@ -1471,6 +1468,27 @@
   <si>
     <t>Multiplate AA test</t>
   </si>
+  <si>
+    <t>VASP phosphorylation assay after LD</t>
+  </si>
+  <si>
+    <t>VASP phosphorylation assay after MD</t>
+  </si>
+  <si>
+    <t>VASP assay after loading dose (LD), Assay result  (numeric), expressed as a Platelet Reactivity Index (PRI) in %</t>
+  </si>
+  <si>
+    <t>VASP assay after maintenance dose (MD), Assay result  (numeric), expressed as a Platelet Reactivity Index (PRI) in %</t>
+  </si>
+  <si>
+    <t>If you have additional type of platelet aggregation phenotypes, please add the columns here and let us know which columns you added</t>
+  </si>
+  <si>
+    <t>VASP assay, please try to specify whether it's after loading dose or maintenance dose. If not known, enter value here. Assay result  (numeric), expressed as a Platelet Reactivity Index (PRI) in %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASP assay, please try to specify whether it's after loading dose or maintenance dose. If not known, enter value here. Assay result  (numeric), expressed as a Platelet Reactivity Index (PRI) in % </t>
+  </si>
 </sst>
 </file>
 
@@ -1480,7 +1498,7 @@
     <numFmt numFmtId="164" formatCode="[$-410]General"/>
     <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1705,6 +1723,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -9191,7 +9221,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9345,6 +9375,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="9" borderId="3" xfId="7300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="9" borderId="4" xfId="7300" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17061,10 +17103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.6"/>
@@ -17244,9 +17286,9 @@
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" ht="48.75" customHeight="1">
+    <row r="25" spans="1:2" ht="90" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="8"/>
     </row>
@@ -17260,7 +17302,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>107</v>
@@ -17268,7 +17310,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>107</v>
@@ -17276,10 +17318,10 @@
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="17" customFormat="1">
@@ -17357,7 +17399,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -17365,7 +17407,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="36" customHeight="1">
@@ -17442,13 +17484,13 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" s="35"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="38" t="s">
         <v>148</v>
@@ -17472,7 +17514,7 @@
     </row>
     <row r="55" spans="1:2" ht="31.2">
       <c r="A55" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>129</v>
@@ -17480,7 +17522,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="36" t="s">
         <v>128</v>
@@ -17488,7 +17530,7 @@
     </row>
     <row r="57" spans="1:2" ht="57" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>38</v>
@@ -17504,7 +17546,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>154</v>
@@ -17512,7 +17554,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>108</v>
@@ -17528,7 +17570,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>154</v>
@@ -17536,7 +17578,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>108</v>
@@ -17544,15 +17586,15 @@
     </row>
     <row r="64" spans="1:2" ht="25.5" customHeight="1">
       <c r="A64" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" s="38" t="s">
         <v>44</v>
@@ -17560,15 +17602,15 @@
     </row>
     <row r="66" spans="1:2" ht="30">
       <c r="A66" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="33" customHeight="1">
       <c r="A67" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B67" s="38" t="s">
         <v>44</v>
@@ -17576,7 +17618,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="38" t="s">
         <v>44</v>
@@ -17584,7 +17626,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>44</v>
@@ -17592,7 +17634,7 @@
     </row>
     <row r="70" spans="1:2" ht="23.25" customHeight="1">
       <c r="A70" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>44</v>
@@ -17600,7 +17642,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>44</v>
@@ -17608,7 +17650,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" s="38" t="s">
         <v>44</v>
@@ -17664,7 +17706,7 @@
     </row>
     <row r="79" spans="1:2" ht="31.5" customHeight="1">
       <c r="A79" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B79" s="35" t="s">
         <v>44</v>
@@ -17672,15 +17714,15 @@
     </row>
     <row r="80" spans="1:2" ht="31.2">
       <c r="A80" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" s="35" t="s">
         <v>44</v>
@@ -17688,15 +17730,15 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B83" s="35" t="s">
         <v>44</v>
@@ -17704,15 +17746,15 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="35" t="s">
         <v>266</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>44</v>
@@ -17720,31 +17762,31 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30">
       <c r="A87" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="31.2">
       <c r="A88" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B89" s="35" t="s">
         <v>44</v>
@@ -17752,17 +17794,17 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="20"/>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>44</v>
@@ -17781,10 +17823,10 @@
     </row>
     <row r="93" spans="1:4" ht="31.2">
       <c r="A93" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="20"/>
     </row>
@@ -17800,10 +17842,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C95" s="20"/>
     </row>
@@ -17818,10 +17860,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="2"/>
@@ -17837,10 +17879,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="2"/>
@@ -17856,10 +17898,10 @@
     </row>
     <row r="101" spans="1:4" ht="31.5" customHeight="1">
       <c r="A101" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1">
@@ -17872,10 +17914,10 @@
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1">
       <c r="A103" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="31.5" customHeight="1">
@@ -17888,15 +17930,15 @@
     </row>
     <row r="105" spans="1:4" ht="31.5" customHeight="1">
       <c r="A105" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1">
       <c r="A106" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="34" t="s">
         <v>44</v>
@@ -17904,15 +17946,15 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" s="34" t="s">
         <v>44</v>
@@ -17920,10 +17962,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -17934,337 +17976,337 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="41" t="s">
+    <row r="111" spans="1:4" ht="43.2">
+      <c r="A111" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="28.8">
+      <c r="A112" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B111" s="35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="28" t="s">
-        <v>151</v>
-      </c>
       <c r="B113" s="35" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="28" t="s">
-        <v>152</v>
+      <c r="A114" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="28" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="31.2">
-      <c r="A117" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="31.2">
+      <c r="A119" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="28" t="s">
+      <c r="B120" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A120" s="28" t="s">
+      <c r="B121" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A122" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A121" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="33" customHeight="1">
-      <c r="A122" s="30" t="s">
+      <c r="B122" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A123" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="33" customHeight="1">
+      <c r="A124" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B124" s="34" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B123" s="34"/>
-    </row>
-    <row r="124" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A124" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="34"/>
+    </row>
+    <row r="126" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A126" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="34"/>
-    </row>
-    <row r="126" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A126" s="30" t="s">
+      <c r="B127" s="34"/>
+    </row>
+    <row r="128" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A128" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B128" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="24" customHeight="1">
-      <c r="A127" s="28" t="s">
+    <row r="129" spans="1:2" ht="24" customHeight="1">
+      <c r="A129" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="B127" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="21" customHeight="1">
-      <c r="A128" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B128" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="21" customHeight="1">
-      <c r="A129" s="28" t="s">
-        <v>301</v>
       </c>
       <c r="B129" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" ht="21" customHeight="1">
       <c r="A130" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B130" s="36"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="21" customHeight="1">
+      <c r="A131" s="28" t="s">
+        <v>300</v>
       </c>
       <c r="B131" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="36"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B134" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A133" s="28" t="s">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A135" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B133" s="36"/>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A134" s="29" t="s">
+      <c r="B135" s="36"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A136" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="21" customHeight="1">
-      <c r="A135" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B135" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A136" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="B136" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A137" s="28" t="s">
+    <row r="137" spans="1:2" ht="21" customHeight="1">
+      <c r="A137" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A138" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A139" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B139" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="21" customHeight="1">
-      <c r="A138" s="41" t="s">
+    <row r="140" spans="1:2" ht="21" customHeight="1">
+      <c r="A140" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B140" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="B138" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A139" s="30" t="s">
+    </row>
+    <row r="141" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A141" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A140" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A141" s="30" t="s">
-        <v>105</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17.25" customHeight="1">
+    <row r="142" spans="1:2" ht="20.25" customHeight="1">
       <c r="A142" s="30" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B142" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="21" customHeight="1">
-      <c r="A143" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="21" customHeight="1">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A143" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="17.25" customHeight="1">
       <c r="A144" s="30" t="s">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="B144" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A145" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>90</v>
+    <row r="145" spans="1:2" ht="21" customHeight="1">
+      <c r="A145" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="21" customHeight="1">
       <c r="A146" s="30" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B146" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="18.75" customHeight="1">
       <c r="A147" s="30" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="B147" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="21" customHeight="1">
       <c r="A148" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B148" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="13" t="s">
-        <v>76</v>
+      <c r="A149" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="B149" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="13" t="s">
-        <v>77</v>
+      <c r="A150" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B150" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="31.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B151" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>197</v>
+        <v>77</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="13" t="s">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="B153" s="34" t="s">
         <v>90</v>
@@ -18272,15 +18314,15 @@
     </row>
     <row r="154" spans="1:2" ht="31.2">
       <c r="A154" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" s="34" t="s">
-        <v>90</v>
+        <v>212</v>
+      </c>
+      <c r="B154" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="31.2">
       <c r="A155" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B155" s="34" t="s">
         <v>90</v>
@@ -18288,7 +18330,7 @@
     </row>
     <row r="156" spans="1:2" ht="31.2">
       <c r="A156" s="13" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="B156" s="34" t="s">
         <v>90</v>
@@ -18296,7 +18338,7 @@
     </row>
     <row r="157" spans="1:2" ht="31.2">
       <c r="A157" s="13" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="B157" s="34" t="s">
         <v>90</v>
@@ -18304,7 +18346,7 @@
     </row>
     <row r="158" spans="1:2" ht="31.2">
       <c r="A158" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B158" s="34" t="s">
         <v>90</v>
@@ -18312,7 +18354,7 @@
     </row>
     <row r="159" spans="1:2" ht="31.2">
       <c r="A159" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B159" s="34" t="s">
         <v>90</v>
@@ -18320,7 +18362,7 @@
     </row>
     <row r="160" spans="1:2" ht="31.2">
       <c r="A160" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B160" s="34" t="s">
         <v>90</v>
@@ -18328,7 +18370,7 @@
     </row>
     <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B161" s="34" t="s">
         <v>90</v>
@@ -18336,7 +18378,7 @@
     </row>
     <row r="162" spans="1:2" ht="31.2">
       <c r="A162" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B162" s="34" t="s">
         <v>90</v>
@@ -18344,15 +18386,15 @@
     </row>
     <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B163" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" ht="31.2">
       <c r="A164" s="13" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B164" s="34" t="s">
         <v>90</v>
@@ -18360,7 +18402,7 @@
     </row>
     <row r="165" spans="1:2" ht="31.2">
       <c r="A165" s="13" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="B165" s="34" t="s">
         <v>90</v>
@@ -18368,15 +18410,15 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="13" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B166" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" ht="31.2">
       <c r="A167" s="13" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="B167" s="34" t="s">
         <v>90</v>
@@ -18384,7 +18426,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B168" s="34" t="s">
         <v>90</v>
@@ -18392,23 +18434,23 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B169" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="31.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="13" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="B170" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B171" s="34" t="s">
         <v>90</v>
@@ -18416,7 +18458,7 @@
     </row>
     <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B172" s="34" t="s">
         <v>90</v>
@@ -18424,7 +18466,7 @@
     </row>
     <row r="173" spans="1:2" ht="31.2">
       <c r="A173" s="13" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="B173" s="34" t="s">
         <v>90</v>
@@ -18432,95 +18474,95 @@
     </row>
     <row r="174" spans="1:2" ht="31.2">
       <c r="A174" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B174" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="19.5" customHeight="1">
+    <row r="175" spans="1:2" ht="31.2">
       <c r="A175" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B175" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18" customHeight="1">
+    <row r="176" spans="1:2" ht="31.2">
       <c r="A176" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B176" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="27.75" customHeight="1">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1">
       <c r="A177" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B177" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="31.2">
+    <row r="178" spans="1:2" ht="18" customHeight="1">
       <c r="A178" s="13" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="B178" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="20.25" customHeight="1">
+    <row r="179" spans="1:2" ht="27.75" customHeight="1">
       <c r="A179" s="13" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="B179" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="21.75" customHeight="1">
+    <row r="180" spans="1:2" ht="31.2">
       <c r="A180" s="13" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="B180" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="18.75" customHeight="1">
+    <row r="181" spans="1:2" ht="20.25" customHeight="1">
       <c r="A181" s="13" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="B181" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="18.75" customHeight="1">
+    <row r="182" spans="1:2" ht="21.75" customHeight="1">
       <c r="A182" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B182" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="31.2">
+    <row r="183" spans="1:2" ht="18.75" customHeight="1">
       <c r="A183" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B183" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="31.2">
+    <row r="184" spans="1:2" ht="18.75" customHeight="1">
       <c r="A184" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B184" s="40" t="s">
-        <v>197</v>
+        <v>251</v>
+      </c>
+      <c r="B184" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="31.2">
       <c r="A185" s="13" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B185" s="34" t="s">
         <v>90</v>
@@ -18528,15 +18570,15 @@
     </row>
     <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B186" s="34" t="s">
-        <v>90</v>
+        <v>211</v>
+      </c>
+      <c r="B186" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B187" s="34" t="s">
         <v>90</v>
@@ -18544,7 +18586,7 @@
     </row>
     <row r="188" spans="1:2" ht="31.2">
       <c r="A188" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B188" s="34" t="s">
         <v>90</v>
@@ -18552,7 +18594,7 @@
     </row>
     <row r="189" spans="1:2" ht="31.2">
       <c r="A189" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B189" s="34" t="s">
         <v>90</v>
@@ -18560,7 +18602,7 @@
     </row>
     <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B190" s="34" t="s">
         <v>90</v>
@@ -18568,7 +18610,7 @@
     </row>
     <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B191" s="34" t="s">
         <v>90</v>
@@ -18576,7 +18618,7 @@
     </row>
     <row r="192" spans="1:2" ht="31.2">
       <c r="A192" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B192" s="34" t="s">
         <v>90</v>
@@ -18584,7 +18626,7 @@
     </row>
     <row r="193" spans="1:2" ht="31.2">
       <c r="A193" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B193" s="34" t="s">
         <v>90</v>
@@ -18592,7 +18634,7 @@
     </row>
     <row r="194" spans="1:2" ht="31.2">
       <c r="A194" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B194" s="34" t="s">
         <v>90</v>
@@ -18600,7 +18642,7 @@
     </row>
     <row r="195" spans="1:2" ht="31.2">
       <c r="A195" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B195" s="34" t="s">
         <v>90</v>
@@ -18608,7 +18650,7 @@
     </row>
     <row r="196" spans="1:2" ht="31.2">
       <c r="A196" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B196" s="34" t="s">
         <v>90</v>
@@ -18616,7 +18658,7 @@
     </row>
     <row r="197" spans="1:2" ht="31.2">
       <c r="A197" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B197" s="34" t="s">
         <v>90</v>
@@ -18624,7 +18666,7 @@
     </row>
     <row r="198" spans="1:2" ht="31.2">
       <c r="A198" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B198" s="34" t="s">
         <v>90</v>
@@ -18632,15 +18674,15 @@
     </row>
     <row r="199" spans="1:2" ht="31.2">
       <c r="A199" s="13" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="B199" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="27.75" customHeight="1">
+    <row r="200" spans="1:2" ht="31.2">
       <c r="A200" s="13" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="B200" s="34" t="s">
         <v>90</v>
@@ -18648,15 +18690,15 @@
     </row>
     <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="13" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.2">
+    <row r="202" spans="1:2" ht="27.75" customHeight="1">
       <c r="A202" s="13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>90</v>
@@ -18664,7 +18706,7 @@
     </row>
     <row r="203" spans="1:2" ht="31.2">
       <c r="A203" s="13" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>90</v>
@@ -18672,7 +18714,7 @@
     </row>
     <row r="204" spans="1:2" ht="31.2">
       <c r="A204" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B204" s="34" t="s">
         <v>90</v>
@@ -18680,7 +18722,7 @@
     </row>
     <row r="205" spans="1:2" ht="31.2">
       <c r="A205" s="13" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="B205" s="34" t="s">
         <v>90</v>
@@ -18688,7 +18730,7 @@
     </row>
     <row r="206" spans="1:2" ht="31.2">
       <c r="A206" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B206" s="34" t="s">
         <v>90</v>
@@ -18696,7 +18738,7 @@
     </row>
     <row r="207" spans="1:2" ht="31.2">
       <c r="A207" s="13" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="B207" s="34" t="s">
         <v>90</v>
@@ -18704,7 +18746,7 @@
     </row>
     <row r="208" spans="1:2" ht="31.2">
       <c r="A208" s="13" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="B208" s="34" t="s">
         <v>90</v>
@@ -18712,7 +18754,7 @@
     </row>
     <row r="209" spans="1:2" ht="31.2">
       <c r="A209" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B209" s="34" t="s">
         <v>90</v>
@@ -18720,7 +18762,7 @@
     </row>
     <row r="210" spans="1:2" ht="31.2">
       <c r="A210" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B210" s="34" t="s">
         <v>90</v>
@@ -18728,7 +18770,7 @@
     </row>
     <row r="211" spans="1:2" ht="31.2">
       <c r="A211" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B211" s="34" t="s">
         <v>90</v>
@@ -18736,15 +18778,15 @@
     </row>
     <row r="212" spans="1:2" ht="31.2">
       <c r="A212" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B212" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="213" spans="1:2" s="19" customFormat="1" ht="31.2">
+    <row r="213" spans="1:2" ht="31.2">
       <c r="A213" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B213" s="34" t="s">
         <v>90</v>
@@ -18752,23 +18794,23 @@
     </row>
     <row r="214" spans="1:2" ht="31.2">
       <c r="A214" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B214" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.2">
+    <row r="215" spans="1:2" s="19" customFormat="1" ht="31.2">
       <c r="A215" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215" s="40" t="s">
-        <v>197</v>
+        <v>259</v>
+      </c>
+      <c r="B215" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="31.2">
       <c r="A216" s="13" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B216" s="34" t="s">
         <v>90</v>
@@ -18776,15 +18818,15 @@
     </row>
     <row r="217" spans="1:2" ht="31.2">
       <c r="A217" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B217" s="34" t="s">
-        <v>90</v>
+        <v>213</v>
+      </c>
+      <c r="B217" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="31.2">
       <c r="A218" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B218" s="34" t="s">
         <v>90</v>
@@ -18792,7 +18834,7 @@
     </row>
     <row r="219" spans="1:2" ht="31.2">
       <c r="A219" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B219" s="34" t="s">
         <v>90</v>
@@ -18800,7 +18842,7 @@
     </row>
     <row r="220" spans="1:2" ht="31.2">
       <c r="A220" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B220" s="34" t="s">
         <v>90</v>
@@ -18808,7 +18850,7 @@
     </row>
     <row r="221" spans="1:2" ht="31.2">
       <c r="A221" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B221" s="34" t="s">
         <v>90</v>
@@ -18816,7 +18858,7 @@
     </row>
     <row r="222" spans="1:2" ht="31.2">
       <c r="A222" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B222" s="34" t="s">
         <v>90</v>
@@ -18824,167 +18866,215 @@
     </row>
     <row r="223" spans="1:2" ht="31.2">
       <c r="A223" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B223" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="30">
+    <row r="224" spans="1:2" ht="31.2">
       <c r="A224" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B224" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="31.2">
+      <c r="A225" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B225" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="45">
+      <c r="A226" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B224" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B225" s="34"/>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="31" t="s">
+      <c r="B226" s="34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="30">
+      <c r="A227" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B227" s="34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="30">
+      <c r="A228" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B228" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15">
+      <c r="A229" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="B229" s="54" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15">
+      <c r="A230" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="B230" s="54" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B231" s="34"/>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B226" s="35" t="s">
+      <c r="B232" s="35" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="45">
-      <c r="A227" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B227" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="45">
-      <c r="A228" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B228" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="45">
-      <c r="A229" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B229" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="45">
-      <c r="A230" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B230" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="45">
-      <c r="A231" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B231" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="45">
-      <c r="A232" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B232" s="34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="45">
       <c r="A233" s="32" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="45">
       <c r="A234" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B234" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="45">
+      <c r="A235" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B235" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="45">
+      <c r="A236" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B236" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="45">
+      <c r="A237" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B237" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="45">
+      <c r="A238" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="45">
+      <c r="A239" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B239" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="45">
+      <c r="A240" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B234" s="34" t="s">
+      <c r="B240" s="34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="45">
-      <c r="A235" s="14" t="s">
+    <row r="241" spans="1:2" ht="45">
+      <c r="A241" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B235" s="34" t="s">
+      <c r="B241" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="30">
-      <c r="A236" s="14" t="s">
+    <row r="242" spans="1:2" ht="30">
+      <c r="A242" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B236" s="34" t="s">
+      <c r="B242" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="30">
-      <c r="A237" s="14" t="s">
+    <row r="243" spans="1:2" ht="30">
+      <c r="A243" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B237" s="34" t="s">
+      <c r="B243" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="45">
-      <c r="A238" s="14" t="s">
+    <row r="244" spans="1:2" ht="45">
+      <c r="A244" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B238" s="34" t="s">
+      <c r="B244" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="14" t="s">
+    <row r="245" spans="1:2">
+      <c r="A245" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B239" s="37" t="s">
+      <c r="B245" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30">
-      <c r="A240" s="14" t="s">
+    <row r="246" spans="1:2" ht="30">
+      <c r="A246" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B240" s="34" t="s">
+      <c r="B246" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="30">
-      <c r="A241" s="14" t="s">
+    <row r="247" spans="1:2" ht="30">
+      <c r="A247" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B241" s="34" t="s">
+      <c r="B247" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="45">
-      <c r="A242" s="14" t="s">
+    <row r="248" spans="1:2" ht="45">
+      <c r="A248" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B242" s="34" t="s">
+      <c r="B248" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="14" t="s">
+    <row r="249" spans="1:2">
+      <c r="A249" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B243" s="37" t="s">
+      <c r="B249" s="37" t="s">
         <v>104</v>
       </c>
     </row>
@@ -19007,10 +19097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HX18"/>
+  <dimension ref="A1:HY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="HM3" sqref="HM3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -19085,17 +19175,16 @@
     <col min="144" max="144" width="9.6640625" customWidth="1"/>
     <col min="159" max="159" width="11.109375" customWidth="1"/>
     <col min="190" max="190" width="11.6640625" customWidth="1"/>
-    <col min="215" max="215" width="11.5546875" customWidth="1"/>
-    <col min="216" max="216" width="13.44140625" customWidth="1"/>
-    <col min="217" max="218" width="10.88671875" customWidth="1"/>
-    <col min="219" max="226" width="8.88671875" style="39"/>
+    <col min="216" max="216" width="11.5546875" customWidth="1"/>
+    <col min="217" max="217" width="13.44140625" customWidth="1"/>
+    <col min="218" max="219" width="10.88671875" customWidth="1"/>
+    <col min="220" max="227" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:232" s="43" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:233" s="43" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="HK1" s="47"/>
+        <v>262</v>
+      </c>
       <c r="HL1" s="47"/>
       <c r="HM1" s="47"/>
       <c r="HN1" s="47"/>
@@ -19103,19 +19192,20 @@
       <c r="HP1" s="47"/>
       <c r="HQ1" s="47"/>
       <c r="HR1" s="47"/>
-    </row>
-    <row r="2" spans="1:232" s="33" customFormat="1" ht="144.6" customHeight="1">
+      <c r="HS1" s="47"/>
+    </row>
+    <row r="2" spans="1:233" s="33" customFormat="1" ht="144.6" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>11</v>
@@ -19181,10 +19271,10 @@
         <v>127</v>
       </c>
       <c r="Z2" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA2" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>149</v>
@@ -19193,58 +19283,58 @@
         <v>150</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF2" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG2" s="27" t="s">
         <v>157</v>
       </c>
       <c r="AH2" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI2" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ2" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM2" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN2" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="AN2" s="27" t="s">
-        <v>199</v>
-      </c>
       <c r="AO2" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AP2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AR2" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AS2" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="AS2" s="27" t="s">
+      <c r="AT2" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="AT2" s="27" t="s">
+      <c r="AU2" s="27" t="s">
         <v>205</v>
-      </c>
-      <c r="AU2" s="27" t="s">
-        <v>206</v>
       </c>
       <c r="AV2" s="27" t="s">
         <v>138</v>
@@ -19265,97 +19355,97 @@
         <v>159</v>
       </c>
       <c r="BB2" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BC2" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD2" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE2" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="BF2" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="BD2" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE2" s="41" t="s">
+      <c r="BG2" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH2" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI2" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="BJ2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="BL2" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="BM2" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="BF2" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG2" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH2" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="BI2" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="BJ2" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK2" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL2" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BM2" s="41" t="s">
+      <c r="BN2" s="41" t="s">
         <v>235</v>
-      </c>
-      <c r="BN2" s="41" t="s">
-        <v>236</v>
       </c>
       <c r="BO2" s="27" t="s">
         <v>163</v>
       </c>
       <c r="BP2" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BQ2" s="27" t="s">
         <v>164</v>
       </c>
       <c r="BR2" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BS2" s="27" t="s">
         <v>165</v>
       </c>
       <c r="BT2" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BU2" s="41" t="s">
         <v>166</v>
       </c>
       <c r="BV2" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BW2" s="41" t="s">
         <v>167</v>
       </c>
       <c r="BX2" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY2" s="41" t="s">
         <v>168</v>
       </c>
       <c r="BZ2" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CA2" s="41" t="s">
         <v>169</v>
       </c>
       <c r="CB2" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CC2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD2" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="CE2" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="CD2" s="41" t="s">
+      <c r="CF2" s="41" t="s">
         <v>268</v>
-      </c>
-      <c r="CE2" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="CF2" s="41" t="s">
-        <v>269</v>
       </c>
       <c r="CG2" s="28" t="s">
         <v>65</v>
@@ -19364,7 +19454,7 @@
         <v>170</v>
       </c>
       <c r="CI2" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CJ2" s="28" t="s">
         <v>151</v>
@@ -19391,7 +19481,7 @@
         <v>141</v>
       </c>
       <c r="CR2" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CS2" s="30" t="s">
         <v>110</v>
@@ -19415,7 +19505,7 @@
         <v>55</v>
       </c>
       <c r="CZ2" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="DA2" s="28" t="s">
         <v>56</v>
@@ -19442,7 +19532,7 @@
         <v>61</v>
       </c>
       <c r="DI2" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="DJ2" s="30" t="s">
         <v>71</v>
@@ -19457,13 +19547,13 @@
         <v>106</v>
       </c>
       <c r="DN2" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="DO2" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP2" s="30" t="s">
         <v>299</v>
-      </c>
-      <c r="DP2" s="30" t="s">
-        <v>300</v>
       </c>
       <c r="DQ2" s="30" t="s">
         <v>73</v>
@@ -19484,40 +19574,40 @@
         <v>78</v>
       </c>
       <c r="DW2" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DX2" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="DY2" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="DY2" s="13" t="s">
+      <c r="DZ2" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="DZ2" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="EA2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="EB2" s="13" t="s">
+      <c r="EC2" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="EC2" s="13" t="s">
+      <c r="ED2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="ED2" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="EE2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="EF2" s="13" t="s">
+      <c r="EG2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="EG2" s="13" t="s">
+      <c r="EH2" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="EH2" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="EI2" s="13" t="s">
         <v>79</v>
@@ -19526,40 +19616,40 @@
         <v>80</v>
       </c>
       <c r="EK2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="EL2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="EL2" s="13" t="s">
+      <c r="EM2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="EM2" s="13" t="s">
+      <c r="EN2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="EN2" s="13" t="s">
-        <v>187</v>
-      </c>
       <c r="EO2" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="EP2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="EQ2" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="EP2" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="EQ2" s="13" t="s">
+      <c r="ER2" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="ER2" s="13" t="s">
+      <c r="ES2" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="ES2" s="13" t="s">
+      <c r="ET2" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="ET2" s="13" t="s">
+      <c r="EU2" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="EU2" s="13" t="s">
+      <c r="EV2" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="EV2" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="EW2" s="13" t="s">
         <v>81</v>
@@ -19568,238 +19658,244 @@
         <v>82</v>
       </c>
       <c r="EY2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="EZ2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="EZ2" s="13" t="s">
+      <c r="FA2" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="FA2" s="13" t="s">
+      <c r="FB2" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="FB2" s="13" t="s">
-        <v>253</v>
-      </c>
       <c r="FC2" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="FD2" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="FE2" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="FE2" s="13" t="s">
+      <c r="FF2" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="FF2" s="13" t="s">
+      <c r="FG2" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="FG2" s="13" t="s">
+      <c r="FH2" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="FH2" s="13" t="s">
+      <c r="FI2" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="FI2" s="13" t="s">
+      <c r="FJ2" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="FJ2" s="13" t="s">
+      <c r="FK2" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="FK2" s="13" t="s">
+      <c r="FL2" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="FL2" s="13" t="s">
+      <c r="FM2" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="FM2" s="13" t="s">
+      <c r="FN2" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="FN2" s="13" t="s">
+      <c r="FO2" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="FO2" s="13" t="s">
+      <c r="FP2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="FP2" s="13" t="s">
+      <c r="FQ2" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="FQ2" s="13" t="s">
-        <v>290</v>
-      </c>
       <c r="FR2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="FS2" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="FS2" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="FT2" s="13" t="s">
         <v>83</v>
       </c>
       <c r="FU2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="FV2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="FV2" s="13" t="s">
+      <c r="FW2" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="FW2" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="FX2" s="13" t="s">
         <v>84</v>
       </c>
       <c r="FY2" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="FZ2" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="GA2" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="GA2" s="13" t="s">
+      <c r="GB2" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="GB2" s="13" t="s">
+      <c r="GC2" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="GC2" s="13" t="s">
+      <c r="GD2" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="GD2" s="13" t="s">
+      <c r="GE2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="GE2" s="13" t="s">
+      <c r="GF2" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="GF2" s="13" t="s">
+      <c r="GG2" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="GG2" s="13" t="s">
-        <v>261</v>
-      </c>
       <c r="GH2" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="GI2" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="GJ2" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="GJ2" s="13" t="s">
+      <c r="GK2" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="GK2" s="13" t="s">
+      <c r="GL2" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="GL2" s="13" t="s">
+      <c r="GM2" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="GM2" s="13" t="s">
+      <c r="GN2" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="GN2" s="13" t="s">
+      <c r="GO2" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="GO2" s="13" t="s">
+      <c r="GP2" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="GP2" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="GQ2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="GR2" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="GS2" s="31" t="s">
+      <c r="GR2" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="GS2" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="GT2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="GT2" s="32" t="s">
+      <c r="GU2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="GU2" s="32" t="s">
+      <c r="GV2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="GV2" s="32" t="s">
+      <c r="GW2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="GW2" s="32" t="s">
+      <c r="GX2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="GX2" s="32" t="s">
+      <c r="GY2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="GY2" s="32" t="s">
+      <c r="GZ2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="GZ2" s="32" t="s">
+      <c r="HA2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="HA2" s="32" t="s">
+      <c r="HB2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="HB2" s="14" t="s">
+      <c r="HC2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="HC2" s="14" t="s">
+      <c r="HD2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="HD2" s="14" t="s">
+      <c r="HE2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="HE2" s="14" t="s">
+      <c r="HF2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="HF2" s="14" t="s">
+      <c r="HG2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="HG2" s="45" t="s">
+      <c r="HH2" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="HI2" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="HH2" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="HI2" s="54" t="s">
+      <c r="HJ2" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="HK2" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="HJ2" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="HK2" s="52" t="s">
+      <c r="HL2" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="HM2" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="HL2" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="HM2" s="51" t="s">
+      <c r="HN2" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="HO2" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="HN2" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="HO2" s="51" t="s">
-        <v>325</v>
-      </c>
       <c r="HP2" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="HQ2" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="HQ2" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="HR2" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="HS2" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="HR2" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="HS2" s="50" t="s">
+      <c r="HT2" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="HU2" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="HT2" s="50" t="s">
+      <c r="HV2" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="HU2" s="50" t="s">
+      <c r="HW2" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="HV2" s="50" t="s">
+      <c r="HX2" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="HW2" s="50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:232" s="33" customFormat="1" ht="164.4" customHeight="1">
+      <c r="HY2" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:233" s="33" customFormat="1" ht="164.4" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -19810,10 +19906,10 @@
         <v>107</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>41</v>
@@ -19837,13 +19933,13 @@
         <v>123</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N3" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>218</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>219</v>
       </c>
       <c r="P3" s="35"/>
       <c r="Q3" s="35" t="s">
@@ -19905,13 +20001,13 @@
         <v>108</v>
       </c>
       <c r="AM3" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN3" s="38" t="s">
         <v>44</v>
       </c>
       <c r="AO3" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AP3" s="38" t="s">
         <v>44</v>
@@ -19953,37 +20049,37 @@
         <v>44</v>
       </c>
       <c r="BC3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD3" s="35" t="s">
         <v>44</v>
       </c>
       <c r="BE3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BF3" s="35" t="s">
         <v>44</v>
       </c>
       <c r="BG3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BH3" s="35" t="s">
         <v>44</v>
       </c>
       <c r="BI3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BJ3" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BK3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BL3" s="35" t="s">
         <v>44</v>
       </c>
       <c r="BM3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BN3" s="35" t="s">
         <v>44</v>
@@ -19992,98 +20088,98 @@
         <v>162</v>
       </c>
       <c r="BP3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BQ3" s="35" t="s">
         <v>146</v>
       </c>
       <c r="BR3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BS3" s="35" t="s">
         <v>146</v>
       </c>
       <c r="BT3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BU3" s="35" t="s">
         <v>147</v>
       </c>
       <c r="BV3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BW3" s="35" t="s">
         <v>44</v>
       </c>
       <c r="BX3" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BY3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="BZ3" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CA3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="CB3" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CC3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="CD3" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CE3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="CF3" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CG3" s="35" t="s">
         <v>108</v>
       </c>
       <c r="CH3" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CI3" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CJ3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CK3" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CL3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CM3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CN3" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CO3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CP3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CQ3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CR3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CS3" s="34" t="s">
         <v>109</v>
       </c>
       <c r="CT3" s="34"/>
       <c r="CU3" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CV3" s="34"/>
       <c r="CW3" s="34" t="s">
@@ -20119,7 +20215,7 @@
         <v>66</v>
       </c>
       <c r="DI3" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="DJ3" s="34" t="s">
         <v>90</v>
@@ -20134,7 +20230,7 @@
         <v>90</v>
       </c>
       <c r="DN3" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="DO3" s="34" t="s">
         <v>90</v>
@@ -20161,7 +20257,7 @@
         <v>90</v>
       </c>
       <c r="DW3" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="DX3" s="34" t="s">
         <v>90</v>
@@ -20257,7 +20353,7 @@
         <v>90</v>
       </c>
       <c r="FC3" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="FD3" s="34" t="s">
         <v>90</v>
@@ -20350,7 +20446,7 @@
         <v>90</v>
       </c>
       <c r="GH3" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="GI3" s="34" t="s">
         <v>90</v>
@@ -20377,14 +20473,16 @@
         <v>90</v>
       </c>
       <c r="GQ3" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="GR3" s="34"/>
-      <c r="GS3" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="GR3" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="GS3" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="GT3" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="GT3" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="GU3" s="34" t="s">
         <v>111</v>
@@ -20393,101 +20491,106 @@
         <v>111</v>
       </c>
       <c r="GW3" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="GX3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="GX3" s="34" t="s">
+      <c r="GY3" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="GY3" s="34" t="s">
+      <c r="GZ3" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="GZ3" s="34" t="s">
-        <v>114</v>
       </c>
       <c r="HA3" s="34" t="s">
         <v>114</v>
       </c>
       <c r="HB3" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="HC3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="HC3" s="34" t="s">
+      <c r="HD3" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="HD3" s="34" t="s">
+      <c r="HE3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="HE3" s="34" t="s">
+      <c r="HF3" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="HF3" s="37" t="s">
+      <c r="HG3" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="HG3" s="46" t="s">
+      <c r="HH3" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="HI3" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="HH3" s="49" t="s">
+      <c r="HJ3" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="HI3" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="HJ3" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="HK3" s="51" t="s">
+      <c r="HK3" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="HL3" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="HM3" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="HL3" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="HM3" s="51" t="s">
+      <c r="HN3" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="HO3" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="HN3" s="51" t="s">
+      <c r="HP3" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ3" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="HR3" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="HS3" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="HT3" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="HO3" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="HP3" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="HQ3" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="HR3" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="HS3" s="50" t="s">
+      <c r="HU3" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="HT3" s="50" t="s">
+      <c r="HV3" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="HU3" s="50" t="s">
+      <c r="HW3" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="HV3" s="50" t="s">
+      <c r="HX3" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="HW3" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="HX3" s="52"/>
-    </row>
-    <row r="4" spans="1:232" s="33" customFormat="1"/>
-    <row r="5" spans="1:232" s="33" customFormat="1"/>
-    <row r="6" spans="1:232" s="33" customFormat="1"/>
-    <row r="7" spans="1:232" s="33" customFormat="1"/>
-    <row r="8" spans="1:232" s="33" customFormat="1"/>
-    <row r="9" spans="1:232" s="33" customFormat="1"/>
-    <row r="10" spans="1:232" s="33" customFormat="1"/>
-    <row r="11" spans="1:232" s="33" customFormat="1"/>
-    <row r="12" spans="1:232" s="33" customFormat="1"/>
-    <row r="13" spans="1:232" s="39" customFormat="1"/>
-    <row r="14" spans="1:232" s="39" customFormat="1"/>
-    <row r="15" spans="1:232" s="39" customFormat="1"/>
-    <row r="16" spans="1:232" s="39" customFormat="1"/>
+      <c r="HY3" s="34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:233" s="33" customFormat="1"/>
+    <row r="5" spans="1:233" s="33" customFormat="1"/>
+    <row r="6" spans="1:233" s="33" customFormat="1"/>
+    <row r="7" spans="1:233" s="33" customFormat="1"/>
+    <row r="8" spans="1:233" s="33" customFormat="1"/>
+    <row r="9" spans="1:233" s="33" customFormat="1"/>
+    <row r="10" spans="1:233" s="33" customFormat="1"/>
+    <row r="11" spans="1:233" s="33" customFormat="1"/>
+    <row r="12" spans="1:233" s="33" customFormat="1"/>
+    <row r="13" spans="1:233" s="39" customFormat="1"/>
+    <row r="14" spans="1:233" s="39" customFormat="1"/>
+    <row r="15" spans="1:233" s="39" customFormat="1"/>
+    <row r="16" spans="1:233" s="39" customFormat="1"/>
     <row r="17" s="39" customFormat="1"/>
     <row r="18" s="39" customFormat="1"/>
   </sheetData>

--- a/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
+++ b/resources/org/pharmgkb/ICPC_Submission_Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pharmgkb_icpc\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="264" windowWidth="16452" windowHeight="7164" tabRatio="500"/>
+    <workbookView xWindow="1170" yWindow="525" windowWidth="13830" windowHeight="5415" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <author>rcosenti</author>
   </authors>
   <commentList>
-    <comment ref="A42" authorId="0">
+    <comment ref="A42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0">
+    <comment ref="A98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A124" authorId="0">
+    <comment ref="A124" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0">
+    <comment ref="A136" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A137" authorId="0">
+    <comment ref="A137" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A138" authorId="0">
+    <comment ref="A138" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A245" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A249" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +232,7 @@
     <author>rcosenti</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU2" authorId="0">
+    <comment ref="BU2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS2" authorId="0">
+    <comment ref="CS2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE2" authorId="0">
+    <comment ref="DE2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF2" authorId="0">
+    <comment ref="DF2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG2" authorId="0">
+    <comment ref="DG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HG2" authorId="0">
+    <comment ref="HG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="356">
   <si>
     <t>Ever Smoked</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -1488,6 +1493,48 @@
   </si>
   <si>
     <t xml:space="preserve">VASP assay, please try to specify whether it's after loading dose or maintenance dose. If not known, enter value here. Assay result  (numeric), expressed as a Platelet Reactivity Index (PRI) in % </t>
+  </si>
+  <si>
+    <t>VASP phosphorylation assay at baseline</t>
+  </si>
+  <si>
+    <t>Multiplate ADP post loading</t>
+  </si>
+  <si>
+    <t>Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>Non-target vessel revascularization</t>
+  </si>
+  <si>
+    <t>Time to the first hemorrhargic stroke</t>
+  </si>
+  <si>
+    <t>active malignancy</t>
+  </si>
+  <si>
+    <t>cardiogenic shock at the time of PCI</t>
+  </si>
+  <si>
+    <t>hemorrhargic stroke</t>
+  </si>
+  <si>
+    <t>peripheral arterial disease at baseline</t>
+  </si>
+  <si>
+    <t>stent type</t>
+  </si>
+  <si>
+    <t>target vessel revascularization</t>
+  </si>
+  <si>
+    <t>time to the first non-target vessel revascularization</t>
+  </si>
+  <si>
+    <t>time to the first target vessel revascularization</t>
+  </si>
+  <si>
+    <t>type of stent thrombosis</t>
   </si>
 </sst>
 </file>
@@ -16777,6 +16824,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -17105,15 +17155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+    <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="72.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="11"/>
+    <col min="1" max="1" width="72.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -17216,7 +17266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="31.2">
+    <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -17512,7 +17562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31.2">
+    <row r="55" spans="1:2" ht="31.5">
       <c r="A55" s="24" t="s">
         <v>222</v>
       </c>
@@ -17712,7 +17762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="31.2">
+    <row r="80" spans="1:2" ht="31.5">
       <c r="A80" s="41" t="s">
         <v>263</v>
       </c>
@@ -17776,7 +17826,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="31.2">
+    <row r="88" spans="1:4" ht="31.5">
       <c r="A88" s="41" t="s">
         <v>272</v>
       </c>
@@ -17811,7 +17861,7 @@
       </c>
       <c r="C91" s="20"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="31.5">
       <c r="A92" s="27" t="s">
         <v>163</v>
       </c>
@@ -17821,7 +17871,7 @@
       <c r="C92" s="20"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" ht="31.2">
+    <row r="93" spans="1:4" ht="31.5">
       <c r="A93" s="27" t="s">
         <v>229</v>
       </c>
@@ -17976,7 +18026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="43.2">
+    <row r="111" spans="1:4" ht="45">
       <c r="A111" s="56" t="s">
         <v>306</v>
       </c>
@@ -17984,7 +18034,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="28.8">
+    <row r="112" spans="1:4" ht="45">
       <c r="A112" s="57" t="s">
         <v>307</v>
       </c>
@@ -18040,7 +18090,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="31.2">
+    <row r="119" spans="1:2" ht="31.5">
       <c r="A119" s="41" t="s">
         <v>171</v>
       </c>
@@ -18288,7 +18338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="31.5">
       <c r="A151" s="13" t="s">
         <v>76</v>
       </c>
@@ -18296,7 +18346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="13" t="s">
         <v>77</v>
       </c>
@@ -18304,7 +18354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.2">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="13" t="s">
         <v>78</v>
       </c>
@@ -18312,7 +18362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="31.2">
+    <row r="154" spans="1:2" ht="31.5">
       <c r="A154" s="13" t="s">
         <v>212</v>
       </c>
@@ -18320,7 +18370,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="31.2">
+    <row r="155" spans="1:2" ht="31.5">
       <c r="A155" s="13" t="s">
         <v>301</v>
       </c>
@@ -18328,7 +18378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.2">
+    <row r="156" spans="1:2" ht="31.5">
       <c r="A156" s="13" t="s">
         <v>302</v>
       </c>
@@ -18336,7 +18386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="31.2">
+    <row r="157" spans="1:2" ht="31.5">
       <c r="A157" s="13" t="s">
         <v>303</v>
       </c>
@@ -18344,7 +18394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="31.2">
+    <row r="158" spans="1:2" ht="31.5">
       <c r="A158" s="13" t="s">
         <v>172</v>
       </c>
@@ -18352,7 +18402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="31.2">
+    <row r="159" spans="1:2" ht="31.5">
       <c r="A159" s="13" t="s">
         <v>173</v>
       </c>
@@ -18360,7 +18410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="31.2">
+    <row r="160" spans="1:2" ht="31.5">
       <c r="A160" s="13" t="s">
         <v>174</v>
       </c>
@@ -18368,7 +18418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.2">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="13" t="s">
         <v>175</v>
       </c>
@@ -18376,7 +18426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="31.2">
+    <row r="162" spans="1:2" ht="31.5">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -18384,7 +18434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.2">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -18392,7 +18442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -18400,7 +18450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="31.2">
+    <row r="165" spans="1:2" ht="31.5">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -18416,7 +18466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="31.2">
+    <row r="167" spans="1:2" ht="31.5">
       <c r="A167" s="13" t="s">
         <v>80</v>
       </c>
@@ -18424,7 +18474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="13" t="s">
         <v>183</v>
       </c>
@@ -18432,7 +18482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" ht="31.5">
       <c r="A169" s="13" t="s">
         <v>184</v>
       </c>
@@ -18440,7 +18490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" ht="31.5">
       <c r="A170" s="13" t="s">
         <v>185</v>
       </c>
@@ -18448,7 +18498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="13" t="s">
         <v>186</v>
       </c>
@@ -18456,7 +18506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.2">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="13" t="s">
         <v>242</v>
       </c>
@@ -18464,7 +18514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="31.2">
+    <row r="173" spans="1:2" ht="31.5">
       <c r="A173" s="13" t="s">
         <v>178</v>
       </c>
@@ -18472,7 +18522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="31.2">
+    <row r="174" spans="1:2" ht="31.5">
       <c r="A174" s="13" t="s">
         <v>243</v>
       </c>
@@ -18480,7 +18530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="31.2">
+    <row r="175" spans="1:2" ht="31.5">
       <c r="A175" s="13" t="s">
         <v>244</v>
       </c>
@@ -18488,7 +18538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="31.2">
+    <row r="176" spans="1:2" ht="31.5">
       <c r="A176" s="13" t="s">
         <v>245</v>
       </c>
@@ -18520,7 +18570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="31.2">
+    <row r="180" spans="1:2" ht="31.5">
       <c r="A180" s="13" t="s">
         <v>81</v>
       </c>
@@ -18560,7 +18610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="31.2">
+    <row r="185" spans="1:2" ht="31.5">
       <c r="A185" s="13" t="s">
         <v>252</v>
       </c>
@@ -18568,7 +18618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="31.2">
+    <row r="186" spans="1:2" ht="31.5">
       <c r="A186" s="13" t="s">
         <v>211</v>
       </c>
@@ -18576,7 +18626,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.2">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="13" t="s">
         <v>276</v>
       </c>
@@ -18584,7 +18634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="31.2">
+    <row r="188" spans="1:2" ht="31.5">
       <c r="A188" s="13" t="s">
         <v>277</v>
       </c>
@@ -18592,7 +18642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="31.2">
+    <row r="189" spans="1:2" ht="31.5">
       <c r="A189" s="13" t="s">
         <v>278</v>
       </c>
@@ -18600,7 +18650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.2">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="13" t="s">
         <v>279</v>
       </c>
@@ -18608,7 +18658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.2">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="13" t="s">
         <v>280</v>
       </c>
@@ -18616,7 +18666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="31.2">
+    <row r="192" spans="1:2" ht="31.5">
       <c r="A192" s="13" t="s">
         <v>281</v>
       </c>
@@ -18624,7 +18674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="31.2">
+    <row r="193" spans="1:2" ht="31.5">
       <c r="A193" s="13" t="s">
         <v>282</v>
       </c>
@@ -18632,7 +18682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="31.2">
+    <row r="194" spans="1:2" ht="31.5">
       <c r="A194" s="13" t="s">
         <v>283</v>
       </c>
@@ -18640,7 +18690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="31.2">
+    <row r="195" spans="1:2" ht="31.5">
       <c r="A195" s="13" t="s">
         <v>284</v>
       </c>
@@ -18648,7 +18698,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="31.2">
+    <row r="196" spans="1:2" ht="31.5">
       <c r="A196" s="13" t="s">
         <v>285</v>
       </c>
@@ -18656,7 +18706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="31.2">
+    <row r="197" spans="1:2" ht="31.5">
       <c r="A197" s="13" t="s">
         <v>286</v>
       </c>
@@ -18664,7 +18714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="31.2">
+    <row r="198" spans="1:2" ht="31.5">
       <c r="A198" s="13" t="s">
         <v>287</v>
       </c>
@@ -18672,7 +18722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="31.2">
+    <row r="199" spans="1:2" ht="31.5">
       <c r="A199" s="13" t="s">
         <v>288</v>
       </c>
@@ -18680,7 +18730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="31.2">
+    <row r="200" spans="1:2" ht="31.5">
       <c r="A200" s="13" t="s">
         <v>289</v>
       </c>
@@ -18688,7 +18738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.2">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="13" t="s">
         <v>176</v>
       </c>
@@ -18704,7 +18754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="31.2">
+    <row r="203" spans="1:2" ht="31.5">
       <c r="A203" s="13" t="s">
         <v>83</v>
       </c>
@@ -18712,7 +18762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="31.2">
+    <row r="204" spans="1:2" ht="31.5">
       <c r="A204" s="13" t="s">
         <v>187</v>
       </c>
@@ -18720,7 +18770,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="31.2">
+    <row r="205" spans="1:2" ht="31.5">
       <c r="A205" s="13" t="s">
         <v>188</v>
       </c>
@@ -18728,7 +18778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="31.2">
+    <row r="206" spans="1:2" ht="31.5">
       <c r="A206" s="13" t="s">
         <v>189</v>
       </c>
@@ -18736,7 +18786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="31.2">
+    <row r="207" spans="1:2" ht="31.5">
       <c r="A207" s="13" t="s">
         <v>84</v>
       </c>
@@ -18744,7 +18794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="31.2">
+    <row r="208" spans="1:2" ht="31.5">
       <c r="A208" s="13" t="s">
         <v>190</v>
       </c>
@@ -18752,7 +18802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="31.2">
+    <row r="209" spans="1:2" ht="31.5">
       <c r="A209" s="13" t="s">
         <v>253</v>
       </c>
@@ -18760,7 +18810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="31.2">
+    <row r="210" spans="1:2" ht="31.5">
       <c r="A210" s="13" t="s">
         <v>254</v>
       </c>
@@ -18768,7 +18818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="31.2">
+    <row r="211" spans="1:2" ht="31.5">
       <c r="A211" s="13" t="s">
         <v>255</v>
       </c>
@@ -18776,7 +18826,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="31.2">
+    <row r="212" spans="1:2" ht="31.5">
       <c r="A212" s="13" t="s">
         <v>256</v>
       </c>
@@ -18784,7 +18834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="31.2">
+    <row r="213" spans="1:2" ht="31.5">
       <c r="A213" s="13" t="s">
         <v>257</v>
       </c>
@@ -18792,7 +18842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="31.2">
+    <row r="214" spans="1:2" ht="31.5">
       <c r="A214" s="13" t="s">
         <v>258</v>
       </c>
@@ -18800,7 +18850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:2" s="19" customFormat="1" ht="31.2">
+    <row r="215" spans="1:2" s="19" customFormat="1" ht="31.5">
       <c r="A215" s="13" t="s">
         <v>259</v>
       </c>
@@ -18808,7 +18858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="31.2">
+    <row r="216" spans="1:2" ht="31.5">
       <c r="A216" s="13" t="s">
         <v>260</v>
       </c>
@@ -18816,7 +18866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="31.2">
+    <row r="217" spans="1:2" ht="31.5">
       <c r="A217" s="13" t="s">
         <v>213</v>
       </c>
@@ -18824,7 +18874,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="31.2">
+    <row r="218" spans="1:2" ht="31.5">
       <c r="A218" s="13" t="s">
         <v>290</v>
       </c>
@@ -18832,7 +18882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="31.2">
+    <row r="219" spans="1:2" ht="31.5">
       <c r="A219" s="13" t="s">
         <v>291</v>
       </c>
@@ -18840,7 +18890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="31.2">
+    <row r="220" spans="1:2" ht="31.5">
       <c r="A220" s="13" t="s">
         <v>292</v>
       </c>
@@ -18848,7 +18898,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="31.2">
+    <row r="221" spans="1:2" ht="31.5">
       <c r="A221" s="13" t="s">
         <v>293</v>
       </c>
@@ -18856,7 +18906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="31.2">
+    <row r="222" spans="1:2" ht="31.5">
       <c r="A222" s="13" t="s">
         <v>294</v>
       </c>
@@ -18864,7 +18914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="31.2">
+    <row r="223" spans="1:2" ht="31.5">
       <c r="A223" s="13" t="s">
         <v>295</v>
       </c>
@@ -18872,7 +18922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="31.2">
+    <row r="224" spans="1:2" ht="31.5">
       <c r="A224" s="13" t="s">
         <v>296</v>
       </c>
@@ -18880,7 +18930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="31.2">
+    <row r="225" spans="1:2" ht="31.5">
       <c r="A225" s="13" t="s">
         <v>297</v>
       </c>
@@ -19014,7 +19064,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="30">
+    <row r="242" spans="1:2" ht="45">
       <c r="A242" s="14" t="s">
         <v>87</v>
       </c>
@@ -19022,7 +19072,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="30">
+    <row r="243" spans="1:2" ht="45">
       <c r="A243" s="14" t="s">
         <v>88</v>
       </c>
@@ -19046,7 +19096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="30">
+    <row r="246" spans="1:2" ht="45">
       <c r="A246" s="14" t="s">
         <v>87</v>
       </c>
@@ -19054,7 +19104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="30">
+    <row r="247" spans="1:2" ht="45">
       <c r="A247" s="14" t="s">
         <v>88</v>
       </c>
@@ -19097,91 +19147,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HY18"/>
+  <dimension ref="A1:IK18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="GO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="HT2" sqref="HT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" customWidth="1"/>
-    <col min="32" max="32" width="13.88671875" customWidth="1"/>
-    <col min="33" max="35" width="13.33203125" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" customWidth="1"/>
-    <col min="37" max="37" width="11.44140625" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" customWidth="1"/>
-    <col min="39" max="39" width="9.88671875" customWidth="1"/>
-    <col min="42" max="43" width="10.33203125" customWidth="1"/>
-    <col min="44" max="44" width="11.5546875" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" customWidth="1"/>
+    <col min="33" max="35" width="13.28515625" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="42" max="43" width="10.28515625" customWidth="1"/>
+    <col min="44" max="44" width="11.5703125" customWidth="1"/>
     <col min="45" max="45" width="14" customWidth="1"/>
-    <col min="46" max="46" width="10.44140625" customWidth="1"/>
-    <col min="47" max="47" width="11.5546875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" customWidth="1"/>
-    <col min="49" max="49" width="11.44140625" customWidth="1"/>
-    <col min="50" max="52" width="10.33203125" customWidth="1"/>
+    <col min="46" max="46" width="10.42578125" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" customWidth="1"/>
+    <col min="48" max="48" width="13.28515625" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="52" width="10.28515625" customWidth="1"/>
     <col min="53" max="53" width="11" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" customWidth="1"/>
-    <col min="55" max="65" width="9.6640625" customWidth="1"/>
-    <col min="66" max="66" width="15.6640625" customWidth="1"/>
-    <col min="67" max="68" width="12.6640625" customWidth="1"/>
-    <col min="69" max="70" width="14.5546875" customWidth="1"/>
-    <col min="85" max="85" width="11.33203125" customWidth="1"/>
-    <col min="86" max="86" width="11.5546875" customWidth="1"/>
+    <col min="54" max="54" width="12.7109375" customWidth="1"/>
+    <col min="55" max="65" width="9.7109375" customWidth="1"/>
+    <col min="66" max="66" width="15.7109375" customWidth="1"/>
+    <col min="67" max="68" width="12.7109375" customWidth="1"/>
+    <col min="69" max="70" width="14.5703125" customWidth="1"/>
+    <col min="85" max="85" width="11.28515625" customWidth="1"/>
+    <col min="86" max="86" width="11.5703125" customWidth="1"/>
     <col min="87" max="87" width="11" customWidth="1"/>
-    <col min="88" max="88" width="10.88671875" customWidth="1"/>
-    <col min="89" max="89" width="10.6640625" customWidth="1"/>
-    <col min="92" max="92" width="13.109375" customWidth="1"/>
-    <col min="97" max="97" width="13.6640625" customWidth="1"/>
-    <col min="98" max="98" width="12.6640625" customWidth="1"/>
-    <col min="99" max="99" width="11.33203125" customWidth="1"/>
+    <col min="88" max="88" width="10.85546875" customWidth="1"/>
+    <col min="89" max="89" width="10.7109375" customWidth="1"/>
+    <col min="92" max="92" width="13.140625" customWidth="1"/>
+    <col min="97" max="97" width="13.7109375" customWidth="1"/>
+    <col min="98" max="98" width="12.7109375" customWidth="1"/>
+    <col min="99" max="99" width="11.28515625" customWidth="1"/>
     <col min="103" max="103" width="10" customWidth="1"/>
-    <col min="104" max="104" width="11.6640625" customWidth="1"/>
-    <col min="111" max="111" width="10.5546875" customWidth="1"/>
+    <col min="104" max="104" width="11.7109375" customWidth="1"/>
+    <col min="111" max="111" width="10.5703125" customWidth="1"/>
     <col min="114" max="114" width="10" customWidth="1"/>
-    <col min="115" max="115" width="10.33203125" customWidth="1"/>
-    <col min="116" max="116" width="10.88671875" customWidth="1"/>
-    <col min="117" max="118" width="10.6640625" customWidth="1"/>
-    <col min="119" max="119" width="10.88671875" customWidth="1"/>
-    <col min="120" max="120" width="10.6640625" customWidth="1"/>
-    <col min="121" max="121" width="11.33203125" customWidth="1"/>
-    <col min="122" max="122" width="14.6640625" customWidth="1"/>
-    <col min="123" max="123" width="14.88671875" customWidth="1"/>
-    <col min="124" max="124" width="13.5546875" customWidth="1"/>
-    <col min="127" max="127" width="11.109375" customWidth="1"/>
-    <col min="131" max="132" width="9.5546875" customWidth="1"/>
-    <col min="133" max="133" width="10.109375" customWidth="1"/>
-    <col min="134" max="135" width="10.33203125" customWidth="1"/>
-    <col min="136" max="136" width="9.6640625" customWidth="1"/>
-    <col min="137" max="137" width="11.109375" customWidth="1"/>
-    <col min="138" max="138" width="9.6640625" customWidth="1"/>
-    <col min="139" max="139" width="10.88671875" customWidth="1"/>
-    <col min="140" max="141" width="9.6640625" customWidth="1"/>
-    <col min="142" max="143" width="10.33203125" customWidth="1"/>
-    <col min="144" max="144" width="9.6640625" customWidth="1"/>
-    <col min="159" max="159" width="11.109375" customWidth="1"/>
-    <col min="190" max="190" width="11.6640625" customWidth="1"/>
-    <col min="216" max="216" width="11.5546875" customWidth="1"/>
-    <col min="217" max="217" width="13.44140625" customWidth="1"/>
-    <col min="218" max="219" width="10.88671875" customWidth="1"/>
-    <col min="220" max="227" width="8.88671875" style="39"/>
+    <col min="115" max="115" width="10.28515625" customWidth="1"/>
+    <col min="116" max="116" width="10.85546875" customWidth="1"/>
+    <col min="117" max="118" width="10.7109375" customWidth="1"/>
+    <col min="119" max="119" width="10.85546875" customWidth="1"/>
+    <col min="120" max="120" width="10.7109375" customWidth="1"/>
+    <col min="121" max="121" width="11.28515625" customWidth="1"/>
+    <col min="122" max="122" width="14.7109375" customWidth="1"/>
+    <col min="123" max="123" width="14.85546875" customWidth="1"/>
+    <col min="124" max="124" width="13.5703125" customWidth="1"/>
+    <col min="127" max="127" width="11.140625" customWidth="1"/>
+    <col min="131" max="132" width="9.5703125" customWidth="1"/>
+    <col min="133" max="133" width="10.140625" customWidth="1"/>
+    <col min="134" max="135" width="10.28515625" customWidth="1"/>
+    <col min="136" max="136" width="9.7109375" customWidth="1"/>
+    <col min="137" max="137" width="11.140625" customWidth="1"/>
+    <col min="138" max="138" width="9.7109375" customWidth="1"/>
+    <col min="139" max="139" width="10.85546875" customWidth="1"/>
+    <col min="140" max="141" width="9.7109375" customWidth="1"/>
+    <col min="142" max="143" width="10.28515625" customWidth="1"/>
+    <col min="144" max="144" width="9.7109375" customWidth="1"/>
+    <col min="159" max="159" width="11.140625" customWidth="1"/>
+    <col min="190" max="190" width="11.7109375" customWidth="1"/>
+    <col min="216" max="216" width="11.5703125" customWidth="1"/>
+    <col min="217" max="217" width="13.42578125" customWidth="1"/>
+    <col min="218" max="219" width="10.85546875" customWidth="1"/>
+    <col min="220" max="239" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="43" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:245" s="43" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>262</v>
       </c>
@@ -19193,8 +19243,20 @@
       <c r="HQ1" s="47"/>
       <c r="HR1" s="47"/>
       <c r="HS1" s="47"/>
-    </row>
-    <row r="2" spans="1:233" s="33" customFormat="1" ht="144.6" customHeight="1">
+      <c r="HT1" s="47"/>
+      <c r="HU1" s="47"/>
+      <c r="HV1" s="47"/>
+      <c r="HW1" s="47"/>
+      <c r="HX1" s="47"/>
+      <c r="HY1" s="47"/>
+      <c r="HZ1" s="47"/>
+      <c r="IA1" s="47"/>
+      <c r="IB1" s="47"/>
+      <c r="IC1" s="47"/>
+      <c r="ID1" s="47"/>
+      <c r="IE1" s="47"/>
+    </row>
+    <row r="2" spans="1:245" s="33" customFormat="1" ht="144.6" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -19790,7 +19852,7 @@
         <v>297</v>
       </c>
       <c r="GQ2" s="13" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="GR2" s="55" t="s">
         <v>335</v>
@@ -19847,7 +19909,7 @@
         <v>307</v>
       </c>
       <c r="HJ2" s="54" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="HK2" s="54" t="s">
         <v>334</v>
@@ -19877,25 +19939,61 @@
         <v>329</v>
       </c>
       <c r="HT2" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="HU2" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="HV2" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="HW2" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="HX2" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="HY2" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="HZ2" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="IA2" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="IB2" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="IC2" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="ID2" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="IE2" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="IF2" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="HU2" s="50" t="s">
+      <c r="IG2" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="HV2" s="50" t="s">
+      <c r="IH2" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="HW2" s="50" t="s">
+      <c r="II2" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="HX2" s="50" t="s">
+      <c r="IJ2" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="HY2" s="13" t="s">
+      <c r="IK2" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:233" s="33" customFormat="1" ht="164.4" customHeight="1">
+    <row r="3" spans="1:245" s="33" customFormat="1" ht="164.45" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -20559,38 +20657,50 @@
       <c r="HS3" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="HT3" s="50" t="s">
+      <c r="HT3" s="50"/>
+      <c r="HU3" s="50"/>
+      <c r="HV3" s="50"/>
+      <c r="HW3" s="50"/>
+      <c r="HX3" s="50"/>
+      <c r="HY3" s="50"/>
+      <c r="HZ3" s="50"/>
+      <c r="IA3" s="50"/>
+      <c r="IB3" s="50"/>
+      <c r="IC3" s="50"/>
+      <c r="ID3" s="50"/>
+      <c r="IE3" s="50"/>
+      <c r="IF3" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="HU3" s="50" t="s">
+      <c r="IG3" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="HV3" s="50" t="s">
+      <c r="IH3" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="HW3" s="50" t="s">
+      <c r="II3" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="HX3" s="50" t="s">
+      <c r="IJ3" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="HY3" s="34" t="s">
+      <c r="IK3" s="34" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:233" s="33" customFormat="1"/>
-    <row r="5" spans="1:233" s="33" customFormat="1"/>
-    <row r="6" spans="1:233" s="33" customFormat="1"/>
-    <row r="7" spans="1:233" s="33" customFormat="1"/>
-    <row r="8" spans="1:233" s="33" customFormat="1"/>
-    <row r="9" spans="1:233" s="33" customFormat="1"/>
-    <row r="10" spans="1:233" s="33" customFormat="1"/>
-    <row r="11" spans="1:233" s="33" customFormat="1"/>
-    <row r="12" spans="1:233" s="33" customFormat="1"/>
-    <row r="13" spans="1:233" s="39" customFormat="1"/>
-    <row r="14" spans="1:233" s="39" customFormat="1"/>
-    <row r="15" spans="1:233" s="39" customFormat="1"/>
-    <row r="16" spans="1:233" s="39" customFormat="1"/>
+    <row r="4" spans="1:245" s="33" customFormat="1"/>
+    <row r="5" spans="1:245" s="33" customFormat="1"/>
+    <row r="6" spans="1:245" s="33" customFormat="1"/>
+    <row r="7" spans="1:245" s="33" customFormat="1"/>
+    <row r="8" spans="1:245" s="33" customFormat="1"/>
+    <row r="9" spans="1:245" s="33" customFormat="1"/>
+    <row r="10" spans="1:245" s="33" customFormat="1"/>
+    <row r="11" spans="1:245" s="33" customFormat="1"/>
+    <row r="12" spans="1:245" s="33" customFormat="1"/>
+    <row r="13" spans="1:245" s="39" customFormat="1"/>
+    <row r="14" spans="1:245" s="39" customFormat="1"/>
+    <row r="15" spans="1:245" s="39" customFormat="1"/>
+    <row r="16" spans="1:245" s="39" customFormat="1"/>
     <row r="17" s="39" customFormat="1"/>
     <row r="18" s="39" customFormat="1"/>
   </sheetData>
